--- a/BackTest/2019-10-25 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-25 BackTest LAMB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>36.08</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-28.5714285714285</v>
+      </c>
       <c r="L13" t="n">
         <v>35.99999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-7.692307692307525</v>
+      </c>
       <c r="L14" t="n">
         <v>35.93999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3.399999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-11.99999999999989</v>
+      </c>
       <c r="L15" t="n">
         <v>35.95999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3.5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-8.333333333333432</v>
+      </c>
       <c r="L16" t="n">
         <v>35.92</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>4.299999999999997</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>18.7499999999998</v>
+      </c>
       <c r="L17" t="n">
         <v>35.98</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>4.799999999999997</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>41.17647058823527</v>
+      </c>
       <c r="L18" t="n">
         <v>36.09</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4.799999999999997</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>35.48387096774182</v>
+      </c>
       <c r="L19" t="n">
         <v>36.23</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.899999999999991</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>61.5384615384619</v>
+      </c>
       <c r="L20" t="n">
         <v>36.33000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>5.299999999999997</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>35.71428571428575</v>
+      </c>
       <c r="L21" t="n">
         <v>36.45</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>5.399999999999991</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>46.15384615384636</v>
+      </c>
       <c r="L22" t="n">
         <v>36.54000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5.499999999999993</v>
       </c>
       <c r="K23" t="n">
-        <v>5.454545454545539</v>
+        <v>36.00000000000004</v>
       </c>
       <c r="L23" t="n">
         <v>36.65000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>5.899999999999991</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.694915254237194</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L24" t="n">
         <v>36.7</v>
@@ -1521,7 +1543,7 @@
         <v>5.999999999999986</v>
       </c>
       <c r="K25" t="n">
-        <v>7.142857142857134</v>
+        <v>11.99999999999996</v>
       </c>
       <c r="L25" t="n">
         <v>36.72000000000001</v>
@@ -1578,7 +1600,7 @@
         <v>6.199999999999982</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.660377358490531</v>
+        <v>-36.84210526315798</v>
       </c>
       <c r="L26" t="n">
         <v>36.73</v>
@@ -1639,7 +1661,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-73.33333333333366</v>
       </c>
       <c r="L27" t="n">
         <v>36.67</v>
@@ -1698,7 +1720,7 @@
         <v>6.599999999999987</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.454545454545539</v>
+        <v>-77.77777777777813</v>
       </c>
       <c r="L28" t="n">
         <v>36.53</v>
@@ -1757,7 +1779,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K29" t="n">
-        <v>7.142857142857134</v>
+        <v>-42.85714285714324</v>
       </c>
       <c r="L29" t="n">
         <v>36.43</v>
@@ -1812,7 +1834,7 @@
         <v>7.099999999999987</v>
       </c>
       <c r="K30" t="n">
-        <v>3.703703703703635</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L30" t="n">
         <v>36.35</v>
@@ -1867,7 +1889,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K31" t="n">
-        <v>28.57142857142867</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>36.39</v>
@@ -1924,7 +1946,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K32" t="n">
-        <v>25.92592592592607</v>
+        <v>25.00000000000007</v>
       </c>
       <c r="L32" t="n">
         <v>36.44</v>
@@ -1983,7 +2005,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K33" t="n">
-        <v>33.33333333333343</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
         <v>36.49999999999999</v>
@@ -2046,7 +2068,7 @@
         <v>8.399999999999991</v>
       </c>
       <c r="K34" t="n">
-        <v>18.51851851851855</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L34" t="n">
         <v>36.55</v>
@@ -2109,7 +2131,7 @@
         <v>8.399999999999991</v>
       </c>
       <c r="K35" t="n">
-        <v>12.00000000000005</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L35" t="n">
         <v>36.58999999999999</v>
@@ -2170,7 +2192,7 @@
         <v>8.699999999999989</v>
       </c>
       <c r="K36" t="n">
-        <v>19.23076923076927</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L36" t="n">
         <v>36.67999999999999</v>
@@ -2231,7 +2253,7 @@
         <v>9.199999999999989</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.122448979591789</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L37" t="n">
         <v>36.70999999999999</v>
@@ -2292,7 +2314,7 @@
         <v>9.499999999999986</v>
       </c>
       <c r="K38" t="n">
-        <v>-10.63829787234045</v>
+        <v>20</v>
       </c>
       <c r="L38" t="n">
         <v>36.8</v>
@@ -2353,7 +2375,7 @@
         <v>9.899999999999984</v>
       </c>
       <c r="K39" t="n">
-        <v>-17.64705882352943</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>36.80999999999999</v>
@@ -2414,7 +2436,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.433962264150948</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L40" t="n">
         <v>36.83999999999999</v>
@@ -2475,7 +2497,7 @@
         <v>10.89999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571425</v>
+        <v>-40.0000000000001</v>
       </c>
       <c r="L41" t="n">
         <v>36.71999999999999</v>
@@ -2534,7 +2556,7 @@
         <v>11.39999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.333333333333381</v>
+        <v>-20.00000000000008</v>
       </c>
       <c r="L42" t="n">
         <v>36.64999999999999</v>
@@ -2591,7 +2613,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-3.225806451612947</v>
       </c>
       <c r="L43" t="n">
         <v>36.59</v>
@@ -2642,7 +2664,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>5.26315789473679</v>
+        <v>-6.250000000000083</v>
       </c>
       <c r="L44" t="n">
         <v>36.57</v>
@@ -2693,7 +2715,7 @@
         <v>11.7</v>
       </c>
       <c r="K45" t="n">
-        <v>1.754385964912302</v>
+        <v>-20</v>
       </c>
       <c r="L45" t="n">
         <v>36.54</v>
@@ -2744,7 +2766,7 @@
         <v>11.8</v>
       </c>
       <c r="K46" t="n">
-        <v>3.571428571428485</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L46" t="n">
         <v>36.47</v>
@@ -2795,7 +2817,7 @@
         <v>12</v>
       </c>
       <c r="K47" t="n">
-        <v>5.263157894736777</v>
+        <v>-11.99999999999982</v>
       </c>
       <c r="L47" t="n">
         <v>36.47</v>
@@ -2846,7 +2868,7 @@
         <v>12.1</v>
       </c>
       <c r="K48" t="n">
-        <v>12.72727272727275</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L48" t="n">
         <v>36.45</v>
@@ -2897,7 +2919,7 @@
         <v>12.2</v>
       </c>
       <c r="K49" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>36.48</v>
@@ -2948,7 +2970,7 @@
         <v>12.3</v>
       </c>
       <c r="K50" t="n">
-        <v>3.846153846153888</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L50" t="n">
         <v>36.47000000000001</v>
@@ -2999,7 +3021,7 @@
         <v>12.3</v>
       </c>
       <c r="K51" t="n">
-        <v>-13.63636363636363</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L51" t="n">
         <v>36.53000000000001</v>
@@ -3050,7 +3072,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>-15.55555555555557</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L52" t="n">
         <v>36.53000000000001</v>
@@ -3101,7 +3123,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>-13.04347826086955</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L53" t="n">
         <v>36.53000000000001</v>
@@ -3152,7 +3174,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>-6.976744186046581</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>36.52</v>
@@ -3203,7 +3225,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.976744186046581</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L55" t="n">
         <v>36.52</v>
@@ -3254,7 +3276,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>-19.0476190476189</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L56" t="n">
         <v>36.51000000000001</v>
@@ -3305,7 +3327,7 @@
         <v>13.1</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.564102564102592</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L57" t="n">
         <v>36.5</v>
@@ -3356,7 +3378,7 @@
         <v>13.3</v>
       </c>
       <c r="K58" t="n">
-        <v>-15.78947368421033</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L58" t="n">
         <v>36.45999999999999</v>
@@ -3407,7 +3429,7 @@
         <v>13.3</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.882352941176324</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L59" t="n">
         <v>36.41</v>
@@ -3458,7 +3480,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>7.692307692307608</v>
+        <v>22.22222222222226</v>
       </c>
       <c r="L60" t="n">
         <v>36.45</v>
@@ -3509,7 +3531,7 @@
         <v>14.2</v>
       </c>
       <c r="K61" t="n">
-        <v>33.33333333333333</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L61" t="n">
         <v>36.49999999999999</v>
@@ -3560,7 +3582,7 @@
         <v>14.3</v>
       </c>
       <c r="K62" t="n">
-        <v>24.13793103448281</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L62" t="n">
         <v>36.56999999999999</v>
@@ -3611,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="K63" t="n">
-        <v>-2.857142857142892</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L63" t="n">
         <v>36.55999999999999</v>
@@ -3662,7 +3684,7 @@
         <v>15.1</v>
       </c>
       <c r="K64" t="n">
-        <v>2.857142857142892</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L64" t="n">
         <v>36.58</v>
@@ -3713,7 +3735,7 @@
         <v>15.4</v>
       </c>
       <c r="K65" t="n">
-        <v>13.5135135135135</v>
+        <v>27.99999999999991</v>
       </c>
       <c r="L65" t="n">
         <v>36.63</v>
@@ -3764,7 +3786,7 @@
         <v>15.5</v>
       </c>
       <c r="K66" t="n">
-        <v>18.91891891891898</v>
+        <v>25.00000000000007</v>
       </c>
       <c r="L66" t="n">
         <v>36.70999999999999</v>
@@ -3815,7 +3837,7 @@
         <v>15.6</v>
       </c>
       <c r="K67" t="n">
-        <v>11.11111111111107</v>
+        <v>30.43478260869541</v>
       </c>
       <c r="L67" t="n">
         <v>36.76</v>
@@ -3866,7 +3888,7 @@
         <v>15.6</v>
       </c>
       <c r="K68" t="n">
-        <v>8.571428571428489</v>
+        <v>30.43478260869541</v>
       </c>
       <c r="L68" t="n">
         <v>36.83</v>
@@ -3917,7 +3939,7 @@
         <v>15.6</v>
       </c>
       <c r="K69" t="n">
-        <v>5.882352941176348</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L69" t="n">
         <v>36.89999999999999</v>
@@ -3968,7 +3990,7 @@
         <v>15.7</v>
       </c>
       <c r="K70" t="n">
-        <v>11.7647058823529</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L70" t="n">
         <v>36.89999999999999</v>
@@ -4019,7 +4041,7 @@
         <v>15.8</v>
       </c>
       <c r="K71" t="n">
-        <v>8.571428571428489</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L71" t="n">
         <v>36.87999999999999</v>
@@ -4070,7 +4092,7 @@
         <v>15.8</v>
       </c>
       <c r="K72" t="n">
-        <v>11.7647058823529</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L72" t="n">
         <v>36.84999999999999</v>
@@ -4121,7 +4143,7 @@
         <v>15.8</v>
       </c>
       <c r="K73" t="n">
-        <v>9.090909090909012</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L73" t="n">
         <v>36.88999999999999</v>
@@ -4172,7 +4194,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>18.75000000000007</v>
+        <v>20</v>
       </c>
       <c r="L74" t="n">
         <v>36.92999999999999</v>
@@ -4223,7 +4245,7 @@
         <v>16.3</v>
       </c>
       <c r="K75" t="n">
-        <v>5.555555555555643</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L75" t="n">
         <v>36.89999999999999</v>
@@ -4274,7 +4296,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>8.571428571428489</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L76" t="n">
         <v>36.84999999999999</v>
@@ -4325,7 +4347,7 @@
         <v>16.8</v>
       </c>
       <c r="K77" t="n">
-        <v>13.5135135135135</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>36.84999999999999</v>
@@ -4376,7 +4398,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>22.22222222222209</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L78" t="n">
         <v>36.85999999999999</v>
@@ -4427,7 +4449,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>24.32432432432422</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L79" t="n">
         <v>36.88</v>
@@ -4478,7 +4500,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>3.448275862068999</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L80" t="n">
         <v>36.89</v>
@@ -4529,7 +4551,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L81" t="n">
         <v>36.91</v>
@@ -4580,7 +4602,7 @@
         <v>17.2</v>
       </c>
       <c r="K82" t="n">
-        <v>3.448275862068763</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L82" t="n">
         <v>36.95</v>
@@ -4631,7 +4653,7 @@
         <v>17.3</v>
       </c>
       <c r="K83" t="n">
-        <v>30.43478260869582</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L83" t="n">
         <v>36.98</v>
@@ -4682,7 +4704,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>30.4347826086956</v>
+        <v>63.63636363636399</v>
       </c>
       <c r="L84" t="n">
         <v>37.01000000000001</v>
@@ -4733,7 +4755,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>20</v>
+        <v>80.00000000000085</v>
       </c>
       <c r="L85" t="n">
         <v>37.08000000000001</v>
@@ -4784,7 +4806,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>20</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L86" t="n">
         <v>37.17</v>
@@ -4835,7 +4857,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>26.31578947368433</v>
+        <v>66.66666666666785</v>
       </c>
       <c r="L87" t="n">
         <v>37.22000000000001</v>
@@ -4886,7 +4908,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>26.31578947368433</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L88" t="n">
         <v>37.26000000000001</v>
@@ -4937,7 +4959,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>14.28571428571458</v>
+        <v>14.28571428571487</v>
       </c>
       <c r="L89" t="n">
         <v>37.27</v>
@@ -4988,7 +5010,7 @@
         <v>17.79999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>4.761904761904859</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>37.27</v>
@@ -5039,7 +5061,7 @@
         <v>17.79999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>10.00000000000021</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>37.27</v>
@@ -5090,7 +5112,7 @@
         <v>17.79999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>10.00000000000021</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L92" t="n">
         <v>37.25</v>
@@ -5141,7 +5163,7 @@
         <v>17.79999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>10.00000000000021</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L93" t="n">
         <v>37.24</v>
@@ -5192,7 +5214,7 @@
         <v>17.89999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>10.00000000000021</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L94" t="n">
         <v>37.23</v>
@@ -5243,7 +5265,7 @@
         <v>17.89999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>37.50000000000039</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L95" t="n">
         <v>37.22</v>
@@ -5294,7 +5316,7 @@
         <v>18.69999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>65.21739130434831</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L96" t="n">
         <v>37.28</v>
@@ -5345,7 +5367,7 @@
         <v>18.69999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>57.89473684210581</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L97" t="n">
         <v>37.34</v>
@@ -5396,7 +5418,7 @@
         <v>18.69999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>55.55555555555608</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L98" t="n">
         <v>37.40000000000001</v>
@@ -5447,7 +5469,7 @@
         <v>19.09999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>61.90476190476235</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>37.52</v>
@@ -5498,7 +5520,7 @@
         <v>19.09999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>61.90476190476235</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>37.65</v>
@@ -5549,7 +5571,7 @@
         <v>19.09999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>61.90476190476235</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>37.77999999999999</v>
@@ -5600,7 +5622,7 @@
         <v>19.19999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>60.00000000000056</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>37.91999999999999</v>
@@ -5651,7 +5673,7 @@
         <v>19.19999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>68.4210526315791</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>38.05999999999999</v>
@@ -5702,7 +5724,7 @@
         <v>19.39999999999999</v>
       </c>
       <c r="K104" t="n">
-        <v>70.00000000000028</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
         <v>38.20999999999999</v>
@@ -5753,7 +5775,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>71.42857142857162</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
         <v>38.36999999999999</v>
@@ -5804,7 +5826,7 @@
         <v>19.69999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>54.54545454545495</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L106" t="n">
         <v>38.42999999999999</v>
@@ -5855,7 +5877,7 @@
         <v>19.69999999999998</v>
       </c>
       <c r="K107" t="n">
-        <v>54.54545454545495</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L107" t="n">
         <v>38.48999999999999</v>
@@ -5906,7 +5928,7 @@
         <v>19.89999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>58.33333333333366</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L108" t="n">
         <v>38.57</v>
@@ -5957,7 +5979,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>40.7407407407407</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L109" t="n">
         <v>38.56</v>
@@ -6008,7 +6030,7 @@
         <v>20.49999999999997</v>
       </c>
       <c r="K110" t="n">
-        <v>40.74074074074107</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L110" t="n">
         <v>38.54000000000001</v>
@@ -6059,7 +6081,7 @@
         <v>20.79999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>26.6666666666667</v>
+        <v>-37.50000000000039</v>
       </c>
       <c r="L111" t="n">
         <v>38.49</v>
@@ -6110,7 +6132,7 @@
         <v>21.19999999999997</v>
       </c>
       <c r="K112" t="n">
-        <v>35.29411764705886</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L112" t="n">
         <v>38.47000000000001</v>
@@ -6161,7 +6183,7 @@
         <v>21.39999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>38.88888888888899</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L113" t="n">
         <v>38.47000000000001</v>
@@ -6212,7 +6234,7 @@
         <v>21.39999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>37.14285714285721</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L114" t="n">
         <v>38.45</v>
@@ -6263,7 +6285,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K115" t="n">
-        <v>42.10526315789478</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L115" t="n">
         <v>38.45</v>
@@ -6314,7 +6336,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K116" t="n">
-        <v>26.6666666666667</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L116" t="n">
         <v>38.47000000000001</v>
@@ -6365,7 +6387,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K117" t="n">
-        <v>26.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>38.49</v>
@@ -6416,7 +6438,7 @@
         <v>21.89999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>31.25000000000011</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L118" t="n">
         <v>38.51000000000001</v>
@@ -6467,7 +6489,7 @@
         <v>21.99999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>17.24137931034488</v>
+        <v>46.66666666666616</v>
       </c>
       <c r="L119" t="n">
         <v>38.57</v>
@@ -6518,7 +6540,7 @@
         <v>21.99999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>17.24137931034488</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L120" t="n">
         <v>38.64</v>
@@ -6569,7 +6591,7 @@
         <v>22.09999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>20.0000000000001</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L121" t="n">
         <v>38.75</v>
@@ -6620,7 +6642,7 @@
         <v>22.39999999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>6.250000000000111</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L122" t="n">
         <v>38.79</v>
@@ -6671,7 +6693,7 @@
         <v>22.59999999999997</v>
       </c>
       <c r="K123" t="n">
-        <v>11.76470588235295</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>38.83</v>
@@ -6722,7 +6744,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K124" t="n">
-        <v>9.090909090909053</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L124" t="n">
         <v>38.88</v>
@@ -6773,7 +6795,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K125" t="n">
-        <v>6.250000000000111</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L125" t="n">
         <v>38.89999999999999</v>
@@ -6824,7 +6846,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>13.33333333333332</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L126" t="n">
         <v>38.91999999999999</v>
@@ -6875,7 +6897,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>13.33333333333332</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>38.93999999999999</v>
@@ -6926,7 +6948,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K128" t="n">
-        <v>7.142857142857252</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L128" t="n">
         <v>38.93999999999999</v>
@@ -6977,7 +6999,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K129" t="n">
-        <v>30.43478260869582</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L129" t="n">
         <v>38.95</v>
@@ -7028,7 +7050,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K130" t="n">
-        <v>46.15384615384596</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L130" t="n">
         <v>38.99999999999999</v>
@@ -7079,7 +7101,7 @@
         <v>23.89999999999997</v>
       </c>
       <c r="K131" t="n">
-        <v>22.58064516129046</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L131" t="n">
         <v>38.95999999999999</v>
@@ -7130,7 +7152,7 @@
         <v>24.49999999999997</v>
       </c>
       <c r="K132" t="n">
-        <v>-9.090909090909012</v>
+        <v>-47.36842105263154</v>
       </c>
       <c r="L132" t="n">
         <v>38.89</v>
@@ -7181,7 +7203,7 @@
         <v>24.69999999999997</v>
       </c>
       <c r="K133" t="n">
-        <v>-21.21212121212131</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L133" t="n">
         <v>38.78</v>
@@ -7232,7 +7254,7 @@
         <v>24.99999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.11111111111107</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L134" t="n">
         <v>38.69</v>
@@ -7283,7 +7305,7 @@
         <v>25.09999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>-23.52941176470576</v>
+        <v>-41.66666666666657</v>
       </c>
       <c r="L135" t="n">
         <v>38.59</v>
@@ -7334,7 +7356,7 @@
         <v>25.19999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>-25.71428571428562</v>
+        <v>-43.99999999999994</v>
       </c>
       <c r="L136" t="n">
         <v>38.48</v>
@@ -7385,7 +7407,7 @@
         <v>25.59999999999998</v>
       </c>
       <c r="K137" t="n">
-        <v>-12.8205128205128</v>
+        <v>-24.13793103448281</v>
       </c>
       <c r="L137" t="n">
         <v>38.41</v>
@@ -7436,7 +7458,7 @@
         <v>25.59999999999998</v>
       </c>
       <c r="K138" t="n">
-        <v>-18.91891891891898</v>
+        <v>-24.13793103448281</v>
       </c>
       <c r="L138" t="n">
         <v>38.34</v>
@@ -7487,7 +7509,7 @@
         <v>25.69999999999998</v>
       </c>
       <c r="K139" t="n">
-        <v>-13.5135135135135</v>
+        <v>-38.46153846153834</v>
       </c>
       <c r="L139" t="n">
         <v>38.28</v>
@@ -7538,7 +7560,7 @@
         <v>25.69999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>-13.5135135135135</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L140" t="n">
         <v>38.18</v>
@@ -7589,7 +7611,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K141" t="n">
-        <v>-13.5135135135135</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L141" t="n">
         <v>38.17</v>
@@ -7640,7 +7662,7 @@
         <v>25.99999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>-11.11111111111124</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L142" t="n">
         <v>38.2</v>
@@ -7691,7 +7713,7 @@
         <v>26.69999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>2.439024390243928</v>
+        <v>52.94117647058785</v>
       </c>
       <c r="L143" t="n">
         <v>38.32</v>
@@ -7742,7 +7764,7 @@
         <v>27.09999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>9.090909090909033</v>
+        <v>69.99999999999969</v>
       </c>
       <c r="L144" t="n">
         <v>38.45</v>
@@ -7793,7 +7815,7 @@
         <v>27.19999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>11.11111111111108</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L145" t="n">
         <v>38.59999999999999</v>
@@ -7844,7 +7866,7 @@
         <v>27.39999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>6.382978723404172</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L146" t="n">
         <v>38.73999999999999</v>
@@ -7895,7 +7917,7 @@
         <v>27.49999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>8.333333333333272</v>
+        <v>57.89473684210494</v>
       </c>
       <c r="L147" t="n">
         <v>38.84999999999999</v>
@@ -7946,7 +7968,7 @@
         <v>27.49999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>8.333333333333272</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L148" t="n">
         <v>38.95999999999999</v>
@@ -7997,7 +8019,7 @@
         <v>27.59999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>6.122448979591754</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L149" t="n">
         <v>39.05</v>
@@ -8048,7 +8070,7 @@
         <v>27.7</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L150" t="n">
         <v>39.14999999999999</v>
@@ -8099,7 +8121,7 @@
         <v>27.7</v>
       </c>
       <c r="K151" t="n">
-        <v>21.05263157894715</v>
+        <v>64.70588235294088</v>
       </c>
       <c r="L151" t="n">
         <v>39.23999999999999</v>
@@ -8150,7 +8172,7 @@
         <v>28</v>
       </c>
       <c r="K152" t="n">
-        <v>48.57142857142826</v>
+        <v>53.8461538461536</v>
       </c>
       <c r="L152" t="n">
         <v>39.37999999999999</v>
@@ -8201,7 +8223,7 @@
         <v>28.09999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>58.82352941176436</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L153" t="n">
         <v>39.45999999999999</v>
@@ -8252,7 +8274,7 @@
         <v>28.29999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>45.4545454545453</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L154" t="n">
         <v>39.48</v>
@@ -8303,7 +8325,7 @@
         <v>28.29999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>49.99999999999989</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L155" t="n">
         <v>39.48999999999999</v>
@@ -8354,7 +8376,7 @@
         <v>28.39999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>49.99999999999989</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L156" t="n">
         <v>39.51</v>
@@ -8405,7 +8427,7 @@
         <v>28.49999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>37.93103448275851</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>39.51</v>
@@ -8456,7 +8478,7 @@
         <v>28.8</v>
       </c>
       <c r="K158" t="n">
-        <v>43.74999999999994</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L158" t="n">
         <v>39.54</v>
@@ -8507,7 +8529,7 @@
         <v>28.8</v>
       </c>
       <c r="K159" t="n">
-        <v>41.93548387096767</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L159" t="n">
         <v>39.58</v>
@@ -8558,7 +8580,7 @@
         <v>28.8</v>
       </c>
       <c r="K160" t="n">
-        <v>41.93548387096767</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L160" t="n">
         <v>39.61</v>
@@ -8609,7 +8631,7 @@
         <v>28.8</v>
       </c>
       <c r="K161" t="n">
-        <v>39.99999999999991</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>39.64</v>
@@ -8660,7 +8682,7 @@
         <v>28.89999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>51.72413793103438</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>39.65</v>
@@ -8711,7 +8733,7 @@
         <v>28.99999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>30.43478260869582</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L163" t="n">
         <v>39.64</v>
@@ -8762,7 +8784,7 @@
         <v>29.09999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>10.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>39.64</v>
@@ -8813,7 +8835,7 @@
         <v>29.09999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>5.263157894736921</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L165" t="n">
         <v>39.64</v>
@@ -8864,7 +8886,7 @@
         <v>29.19999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>11.11111111111129</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L166" t="n">
         <v>39.64</v>
@@ -8915,7 +8937,7 @@
         <v>29.49999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>20</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L167" t="n">
         <v>39.68</v>
@@ -8966,7 +8988,7 @@
         <v>30.09999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>38.46153846153855</v>
+        <v>53.84615384615393</v>
       </c>
       <c r="L168" t="n">
         <v>39.75</v>
@@ -9017,7 +9039,7 @@
         <v>30.39999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>28.57142857142883</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L169" t="n">
         <v>39.79000000000001</v>
@@ -9068,7 +9090,7 @@
         <v>30.49999999999999</v>
       </c>
       <c r="K170" t="n">
-        <v>28.57142857142883</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L170" t="n">
         <v>39.84</v>
@@ -9119,7 +9141,7 @@
         <v>30.69999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>20.0000000000001</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L171" t="n">
         <v>39.87</v>
@@ -9170,7 +9192,7 @@
         <v>30.89999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>17.24137931034488</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L172" t="n">
         <v>39.91</v>
@@ -9221,7 +9243,7 @@
         <v>30.89999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>14.2857142857145</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>39.96</v>
@@ -9272,7 +9294,7 @@
         <v>30.99999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>25.92592592592581</v>
+        <v>36.8421052631577</v>
       </c>
       <c r="L174" t="n">
         <v>40.03</v>
@@ -9323,7 +9345,7 @@
         <v>31.19999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>31.03448275862066</v>
+        <v>50</v>
       </c>
       <c r="L175" t="n">
         <v>40.12</v>
@@ -9374,7 +9396,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>18.75000000000007</v>
+        <v>14.28571428571448</v>
       </c>
       <c r="L176" t="n">
         <v>40.18</v>
@@ -9425,7 +9447,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>22.58064516129046</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L177" t="n">
         <v>40.21</v>
@@ -9476,7 +9498,7 @@
         <v>31.69999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>17.24137931034488</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L178" t="n">
         <v>40.19</v>
@@ -9527,7 +9549,7 @@
         <v>31.99999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>25</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L179" t="n">
         <v>40.23</v>
@@ -9578,7 +9600,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>8.108108108108055</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>40.21</v>
@@ -9629,7 +9651,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>8.108108108108055</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L181" t="n">
         <v>40.21</v>
@@ -9680,7 +9702,7 @@
         <v>32.59999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>8.108108108108231</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L182" t="n">
         <v>40.2</v>
@@ -9731,7 +9753,7 @@
         <v>32.59999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>11.11111111111107</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L183" t="n">
         <v>40.19000000000001</v>
@@ -9782,7 +9804,7 @@
         <v>33.09999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>25</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L184" t="n">
         <v>40.22000000000001</v>
@@ -9833,7 +9855,7 @@
         <v>33.19999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>26.82926829268295</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L185" t="n">
         <v>40.24000000000001</v>
@@ -9884,7 +9906,7 @@
         <v>33.29999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>31.7073170731707</v>
+        <v>41.17647058823515</v>
       </c>
       <c r="L186" t="n">
         <v>40.31000000000001</v>
@@ -9935,7 +9957,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>9.090909090909239</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>40.32000000000001</v>
@@ -9986,7 +10008,7 @@
         <v>33.99999999999997</v>
       </c>
       <c r="K188" t="n">
-        <v>-2.564102564102611</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L188" t="n">
         <v>40.33000000000001</v>
@@ -10037,7 +10059,7 @@
         <v>34.29999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>12.82051282051285</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L189" t="n">
         <v>40.34000000000001</v>
@@ -10088,7 +10110,7 @@
         <v>34.39999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>12.82051282051285</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L190" t="n">
         <v>40.41000000000001</v>
@@ -10139,7 +10161,7 @@
         <v>34.99999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>2.325581395348876</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>40.42000000000001</v>
@@ -10190,7 +10212,7 @@
         <v>35.09999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L192" t="n">
         <v>40.43000000000001</v>
@@ -10241,7 +10263,7 @@
         <v>35.09999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L193" t="n">
         <v>40.44</v>
@@ -10292,7 +10314,7 @@
         <v>35.09999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>-2.439024390243767</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L194" t="n">
         <v>40.4</v>
@@ -10343,7 +10365,7 @@
         <v>35.19999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>-9.999999999999982</v>
+        <v>-36.8421052631577</v>
       </c>
       <c r="L195" t="n">
         <v>40.34</v>
@@ -10394,7 +10416,7 @@
         <v>35.19999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L196" t="n">
         <v>40.27</v>
@@ -10445,7 +10467,7 @@
         <v>35.19999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L197" t="n">
         <v>40.26000000000001</v>
@@ -10496,7 +10518,7 @@
         <v>35.49999999999999</v>
       </c>
       <c r="K198" t="n">
-        <v>-10.52631578947384</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="L198" t="n">
         <v>40.21000000000001</v>
@@ -10547,7 +10569,7 @@
         <v>35.69999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>-24.32432432432432</v>
+        <v>-84.61538461538444</v>
       </c>
       <c r="L199" t="n">
         <v>40.11000000000001</v>
@@ -10598,7 +10620,7 @@
         <v>35.99999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>-20.00000000000008</v>
+        <v>-79.99999999999986</v>
       </c>
       <c r="L200" t="n">
         <v>39.97000000000001</v>
@@ -10649,7 +10671,7 @@
         <v>36.09999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>-22.22222222222218</v>
+        <v>-100</v>
       </c>
       <c r="L201" t="n">
         <v>39.88000000000001</v>
@@ -10700,7 +10722,7 @@
         <v>36.09999999999998</v>
       </c>
       <c r="K202" t="n">
-        <v>-25.71428571428573</v>
+        <v>-100</v>
       </c>
       <c r="L202" t="n">
         <v>39.78000000000001</v>
@@ -10751,7 +10773,7 @@
         <v>36.39999999999998</v>
       </c>
       <c r="K203" t="n">
-        <v>-15.78947368421061</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L203" t="n">
         <v>39.71000000000001</v>
@@ -10802,7 +10824,7 @@
         <v>36.39999999999998</v>
       </c>
       <c r="K204" t="n">
-        <v>-33.33333333333348</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L204" t="n">
         <v>39.64000000000001</v>
@@ -10853,7 +10875,7 @@
         <v>36.69999999999997</v>
       </c>
       <c r="K205" t="n">
-        <v>-42.85714285714303</v>
+        <v>-60.00000000000018</v>
       </c>
       <c r="L205" t="n">
         <v>39.55</v>
@@ -10904,7 +10926,7 @@
         <v>36.99999999999997</v>
       </c>
       <c r="K206" t="n">
-        <v>-35.13513513513517</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L206" t="n">
         <v>39.49</v>
@@ -10955,7 +10977,7 @@
         <v>37.19999999999997</v>
       </c>
       <c r="K207" t="n">
-        <v>-27.27272727272747</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L207" t="n">
         <v>39.41</v>
@@ -11006,7 +11028,7 @@
         <v>37.29999999999997</v>
       </c>
       <c r="K208" t="n">
-        <v>-33.33333333333319</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L208" t="n">
         <v>39.35</v>
@@ -11057,7 +11079,7 @@
         <v>37.49999999999996</v>
       </c>
       <c r="K209" t="n">
-        <v>-37.50000000000022</v>
+        <v>6.666666666666857</v>
       </c>
       <c r="L209" t="n">
         <v>39.33</v>
@@ -11108,7 +11130,7 @@
         <v>37.59999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>-37.50000000000022</v>
+        <v>20</v>
       </c>
       <c r="L210" t="n">
         <v>39.34999999999999</v>
@@ -11159,7 +11181,7 @@
         <v>37.59999999999997</v>
       </c>
       <c r="K211" t="n">
-        <v>-23.07692307692324</v>
+        <v>20</v>
       </c>
       <c r="L211" t="n">
         <v>39.38</v>
@@ -11210,7 +11232,7 @@
         <v>37.89999999999996</v>
       </c>
       <c r="K212" t="n">
-        <v>-35.71428571428593</v>
+        <v>-20</v>
       </c>
       <c r="L212" t="n">
         <v>39.38</v>
@@ -11261,7 +11283,7 @@
         <v>38.49999999999996</v>
       </c>
       <c r="K213" t="n">
-        <v>-47.05882352941202</v>
+        <v>-42.85714285714305</v>
       </c>
       <c r="L213" t="n">
         <v>39.29</v>
@@ -11312,7 +11334,7 @@
         <v>38.89999999999996</v>
       </c>
       <c r="K214" t="n">
-        <v>-31.57894736842127</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L214" t="n">
         <v>39.23999999999999</v>
@@ -11363,7 +11385,7 @@
         <v>38.89999999999996</v>
       </c>
       <c r="K215" t="n">
-        <v>-29.72972972972991</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L215" t="n">
         <v>39.22</v>
@@ -11414,7 +11436,7 @@
         <v>39.09999999999997</v>
       </c>
       <c r="K216" t="n">
-        <v>-33.33333333333358</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L216" t="n">
         <v>39.15</v>
@@ -11465,7 +11487,7 @@
         <v>39.39999999999996</v>
       </c>
       <c r="K217" t="n">
-        <v>-38.0952380952383</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L217" t="n">
         <v>39.07</v>
@@ -11516,7 +11538,7 @@
         <v>39.69999999999996</v>
       </c>
       <c r="K218" t="n">
-        <v>-23.80952380952396</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L218" t="n">
         <v>39.03</v>
@@ -11567,7 +11589,7 @@
         <v>39.89999999999996</v>
       </c>
       <c r="K219" t="n">
-        <v>-14.28571428571438</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L219" t="n">
         <v>38.99</v>
@@ -11618,7 +11640,7 @@
         <v>39.89999999999996</v>
       </c>
       <c r="K220" t="n">
-        <v>-7.692307692307663</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L220" t="n">
         <v>38.94</v>
@@ -11669,7 +11691,7 @@
         <v>39.89999999999996</v>
       </c>
       <c r="K221" t="n">
-        <v>-5.26315789473694</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L221" t="n">
         <v>38.89</v>
@@ -11720,7 +11742,7 @@
         <v>39.89999999999996</v>
       </c>
       <c r="K222" t="n">
-        <v>-5.26315789473694</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L222" t="n">
         <v>38.87</v>
@@ -11771,7 +11793,7 @@
         <v>39.99999999999996</v>
       </c>
       <c r="K223" t="n">
-        <v>-16.66666666666677</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L223" t="n">
         <v>38.9</v>
@@ -11822,7 +11844,7 @@
         <v>39.99999999999996</v>
       </c>
       <c r="K224" t="n">
-        <v>-16.66666666666677</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L224" t="n">
         <v>38.89</v>
@@ -11873,7 +11895,7 @@
         <v>40.19999999999996</v>
       </c>
       <c r="K225" t="n">
-        <v>-14.28571428571434</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L225" t="n">
         <v>38.86</v>
@@ -11924,7 +11946,7 @@
         <v>40.59999999999996</v>
       </c>
       <c r="K226" t="n">
-        <v>-11.11111111111111</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L226" t="n">
         <v>38.89</v>
@@ -11975,7 +11997,7 @@
         <v>40.69999999999996</v>
       </c>
       <c r="K227" t="n">
-        <v>-2.857142857142707</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L227" t="n">
         <v>38.95999999999999</v>
@@ -12026,7 +12048,7 @@
         <v>40.69999999999996</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L228" t="n">
         <v>38.99999999999999</v>
@@ -12077,7 +12099,7 @@
         <v>40.89999999999996</v>
       </c>
       <c r="K229" t="n">
-        <v>-11.7647058823529</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>38.99999999999999</v>
@@ -12128,7 +12150,7 @@
         <v>41.09999999999997</v>
       </c>
       <c r="K230" t="n">
-        <v>-8.571428571428489</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L230" t="n">
         <v>39.02</v>
@@ -12179,7 +12201,7 @@
         <v>41.29999999999997</v>
       </c>
       <c r="K231" t="n">
-        <v>-13.5135135135135</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>39.02</v>
@@ -12230,7 +12252,7 @@
         <v>41.49999999999997</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L232" t="n">
         <v>39.03999999999999</v>
@@ -12281,7 +12303,7 @@
         <v>41.79999999999998</v>
       </c>
       <c r="K233" t="n">
-        <v>9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>39.03999999999999</v>
@@ -12332,7 +12354,7 @@
         <v>41.79999999999998</v>
       </c>
       <c r="K234" t="n">
-        <v>-3.448275862068999</v>
+        <v>12.49999999999961</v>
       </c>
       <c r="L234" t="n">
         <v>39.03999999999999</v>
@@ -12383,7 +12405,7 @@
         <v>41.89999999999998</v>
       </c>
       <c r="K235" t="n">
-        <v>-6.66666666666673</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L235" t="n">
         <v>39.05</v>
@@ -12434,7 +12456,7 @@
         <v>41.89999999999998</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L236" t="n">
         <v>39.02</v>
@@ -12485,7 +12507,7 @@
         <v>41.89999999999998</v>
       </c>
       <c r="K237" t="n">
-        <v>11.99999999999982</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L237" t="n">
         <v>38.98</v>
@@ -12536,7 +12558,7 @@
         <v>41.99999999999997</v>
       </c>
       <c r="K238" t="n">
-        <v>-4.347826086956253</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L238" t="n">
         <v>38.92999999999999</v>
@@ -12587,7 +12609,7 @@
         <v>42.19999999999997</v>
       </c>
       <c r="K239" t="n">
-        <v>-4.347826086956576</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L239" t="n">
         <v>38.91999999999999</v>
@@ -12638,7 +12660,7 @@
         <v>42.29999999999997</v>
       </c>
       <c r="K240" t="n">
-        <v>-8.333333333333432</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L240" t="n">
         <v>38.88</v>
@@ -12689,7 +12711,7 @@
         <v>42.39999999999996</v>
       </c>
       <c r="K241" t="n">
-        <v>-11.99999999999989</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L241" t="n">
         <v>38.84999999999999</v>
@@ -12740,7 +12762,7 @@
         <v>42.59999999999996</v>
       </c>
       <c r="K242" t="n">
-        <v>-3.703703703703762</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>38.81999999999999</v>
@@ -12791,7 +12813,7 @@
         <v>42.79999999999995</v>
       </c>
       <c r="K243" t="n">
-        <v>-7.142857142857016</v>
+        <v>-20</v>
       </c>
       <c r="L243" t="n">
         <v>38.8</v>
@@ -12842,7 +12864,7 @@
         <v>42.89999999999996</v>
       </c>
       <c r="K244" t="n">
-        <v>-10.34482758620683</v>
+        <v>-20</v>
       </c>
       <c r="L244" t="n">
         <v>38.77</v>
@@ -12893,7 +12915,7 @@
         <v>42.89999999999996</v>
       </c>
       <c r="K245" t="n">
-        <v>-3.703703703703762</v>
+        <v>-20</v>
       </c>
       <c r="L245" t="n">
         <v>38.75</v>
@@ -12944,7 +12966,7 @@
         <v>43.49999999999996</v>
       </c>
       <c r="K246" t="n">
-        <v>-37.93103448275869</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L246" t="n">
         <v>38.67</v>
@@ -12995,7 +13017,7 @@
         <v>43.69999999999996</v>
       </c>
       <c r="K247" t="n">
-        <v>-33.33333333333333</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L247" t="n">
         <v>38.61</v>
@@ -13046,7 +13068,7 @@
         <v>44.09999999999996</v>
       </c>
       <c r="K248" t="n">
-        <v>-17.64705882352946</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L248" t="n">
         <v>38.6</v>
@@ -13097,7 +13119,7 @@
         <v>44.49999999999996</v>
       </c>
       <c r="K249" t="n">
-        <v>-22.22222222222218</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L249" t="n">
         <v>38.53</v>
@@ -13148,7 +13170,7 @@
         <v>44.79999999999995</v>
       </c>
       <c r="K250" t="n">
-        <v>-18.91891891891905</v>
+        <v>-8.333333333333481</v>
       </c>
       <c r="L250" t="n">
         <v>38.5</v>
@@ -13199,7 +13221,7 @@
         <v>45.09999999999995</v>
       </c>
       <c r="K251" t="n">
-        <v>-5.26315789473694</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L251" t="n">
         <v>38.51000000000001</v>
@@ -13250,7 +13272,7 @@
         <v>45.49999999999995</v>
       </c>
       <c r="K252" t="n">
-        <v>-20.00000000000021</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L252" t="n">
         <v>38.46</v>
@@ -13301,7 +13323,7 @@
         <v>45.59999999999995</v>
       </c>
       <c r="K253" t="n">
-        <v>-10.52631578947371</v>
+        <v>-3.703703703703762</v>
       </c>
       <c r="L253" t="n">
         <v>38.44</v>
@@ -13352,7 +13374,7 @@
         <v>45.89999999999995</v>
       </c>
       <c r="K254" t="n">
-        <v>-17.07317073170733</v>
+        <v>-13.33333333333332</v>
       </c>
       <c r="L254" t="n">
         <v>38.4</v>
@@ -13403,7 +13425,7 @@
         <v>45.89999999999995</v>
       </c>
       <c r="K255" t="n">
-        <v>-14.99999999999996</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L255" t="n">
         <v>38.36</v>
@@ -13454,7 +13476,7 @@
         <v>45.89999999999995</v>
       </c>
       <c r="K256" t="n">
-        <v>-14.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>38.38</v>
@@ -13505,7 +13527,7 @@
         <v>45.89999999999995</v>
       </c>
       <c r="K257" t="n">
-        <v>-14.99999999999996</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L257" t="n">
         <v>38.38</v>
@@ -13556,7 +13578,7 @@
         <v>46.09999999999994</v>
       </c>
       <c r="K258" t="n">
-        <v>-7.317073170731859</v>
+        <v>12.49999999999983</v>
       </c>
       <c r="L258" t="n">
         <v>38.35999999999999</v>
@@ -13607,7 +13629,7 @@
         <v>46.29999999999994</v>
       </c>
       <c r="K259" t="n">
-        <v>-17.07317073170733</v>
+        <v>-20</v>
       </c>
       <c r="L259" t="n">
         <v>38.35999999999999</v>
@@ -13658,7 +13680,7 @@
         <v>46.29999999999994</v>
       </c>
       <c r="K260" t="n">
-        <v>-14.99999999999996</v>
+        <v>-50</v>
       </c>
       <c r="L260" t="n">
         <v>38.32999999999999</v>
@@ -13709,7 +13731,7 @@
         <v>46.29999999999994</v>
       </c>
       <c r="K261" t="n">
-        <v>-12.82051282051289</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L261" t="n">
         <v>38.26999999999999</v>
@@ -13760,7 +13782,7 @@
         <v>46.29999999999994</v>
       </c>
       <c r="K262" t="n">
-        <v>-18.9189189189189</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L262" t="n">
         <v>38.24999999999999</v>
@@ -13811,7 +13833,7 @@
         <v>46.39999999999994</v>
       </c>
       <c r="K263" t="n">
-        <v>-16.66666666666677</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L263" t="n">
         <v>38.20999999999999</v>
@@ -13862,7 +13884,7 @@
         <v>46.49999999999994</v>
       </c>
       <c r="K264" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>38.20999999999999</v>
@@ -13913,7 +13935,7 @@
         <v>46.49999999999994</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>38.20999999999999</v>
@@ -13964,7 +13986,7 @@
         <v>46.59999999999994</v>
       </c>
       <c r="K266" t="n">
-        <v>9.67741935483868</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L266" t="n">
         <v>38.21999999999999</v>
@@ -14015,7 +14037,7 @@
         <v>47.19999999999993</v>
       </c>
       <c r="K267" t="n">
-        <v>-14.2857142857144</v>
+        <v>-63.63636363636399</v>
       </c>
       <c r="L267" t="n">
         <v>38.16999999999999</v>
@@ -14066,7 +14088,7 @@
         <v>47.79999999999993</v>
       </c>
       <c r="K268" t="n">
-        <v>-8.108108108108295</v>
+        <v>6.666666666666352</v>
       </c>
       <c r="L268" t="n">
         <v>38.16</v>
@@ -14117,7 +14139,7 @@
         <v>47.79999999999993</v>
       </c>
       <c r="K269" t="n">
-        <v>3.030303030302887</v>
+        <v>6.666666666666352</v>
       </c>
       <c r="L269" t="n">
         <v>38.17</v>
@@ -14168,7 +14190,7 @@
         <v>47.89999999999993</v>
       </c>
       <c r="K270" t="n">
-        <v>-3.225806451612977</v>
+        <v>12.49999999999983</v>
       </c>
       <c r="L270" t="n">
         <v>38.19</v>
@@ -14219,7 +14241,7 @@
         <v>48.59999999999993</v>
       </c>
       <c r="K271" t="n">
-        <v>8.571428571428745</v>
+        <v>39.1304347826088</v>
       </c>
       <c r="L271" t="n">
         <v>38.28</v>
@@ -14270,7 +14292,7 @@
         <v>48.89999999999993</v>
       </c>
       <c r="K272" t="n">
-        <v>29.41176470588255</v>
+        <v>52.00000000000018</v>
       </c>
       <c r="L272" t="n">
         <v>38.4</v>
@@ -14321,7 +14343,7 @@
         <v>49.69999999999992</v>
       </c>
       <c r="K273" t="n">
-        <v>2.439024390243953</v>
+        <v>12.50000000000003</v>
       </c>
       <c r="L273" t="n">
         <v>38.45</v>
@@ -14372,7 +14394,7 @@
         <v>49.99999999999992</v>
       </c>
       <c r="K274" t="n">
-        <v>17.07317073170733</v>
+        <v>20</v>
       </c>
       <c r="L274" t="n">
         <v>38.52</v>
@@ -14423,7 +14445,7 @@
         <v>50.09999999999992</v>
       </c>
       <c r="K275" t="n">
-        <v>19.0476190476191</v>
+        <v>20.00000000000016</v>
       </c>
       <c r="L275" t="n">
         <v>38.6</v>
@@ -14474,7 +14496,7 @@
         <v>50.29999999999993</v>
       </c>
       <c r="K276" t="n">
-        <v>22.72727272727285</v>
+        <v>48.38709677419364</v>
       </c>
       <c r="L276" t="n">
         <v>38.69</v>
@@ -14525,7 +14547,7 @@
         <v>50.49999999999993</v>
       </c>
       <c r="K277" t="n">
-        <v>17.3913043478261</v>
+        <v>25.925925925926</v>
       </c>
       <c r="L277" t="n">
         <v>38.82</v>
@@ -14576,7 +14598,7 @@
         <v>50.59999999999993</v>
       </c>
       <c r="K278" t="n">
-        <v>15.55555555555567</v>
+        <v>28.57142857142868</v>
       </c>
       <c r="L278" t="n">
         <v>38.9</v>
@@ -14627,7 +14649,7 @@
         <v>50.59999999999993</v>
       </c>
       <c r="K279" t="n">
-        <v>20.93023255813955</v>
+        <v>25.925925925926</v>
       </c>
       <c r="L279" t="n">
         <v>38.98</v>
@@ -14678,7 +14700,7 @@
         <v>50.79999999999993</v>
       </c>
       <c r="K280" t="n">
-        <v>15.55555555555549</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L280" t="n">
         <v>39.03</v>
@@ -14729,7 +14751,7 @@
         <v>50.89999999999993</v>
       </c>
       <c r="K281" t="n">
-        <v>17.39130434782605</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L281" t="n">
         <v>39.02</v>
@@ -14780,7 +14802,7 @@
         <v>50.99999999999994</v>
       </c>
       <c r="K282" t="n">
-        <v>14.89361702127652</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L282" t="n">
         <v>38.97</v>
@@ -14831,7 +14853,7 @@
         <v>51.19999999999993</v>
       </c>
       <c r="K283" t="n">
-        <v>12.50000000000006</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L283" t="n">
         <v>38.98</v>
@@ -14882,7 +14904,7 @@
         <v>51.29999999999993</v>
       </c>
       <c r="K284" t="n">
-        <v>12.49999999999993</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L284" t="n">
         <v>38.97</v>
@@ -14933,7 +14955,7 @@
         <v>51.39999999999992</v>
       </c>
       <c r="K285" t="n">
-        <v>10.20408163265311</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L285" t="n">
         <v>38.94</v>
@@ -14984,7 +15006,7 @@
         <v>51.39999999999992</v>
       </c>
       <c r="K286" t="n">
-        <v>8.333333333333481</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>38.89</v>
@@ -15035,7 +15057,7 @@
         <v>51.49999999999992</v>
       </c>
       <c r="K287" t="n">
-        <v>20.93023255813955</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L287" t="n">
         <v>38.85</v>
@@ -15086,7 +15108,7 @@
         <v>51.89999999999992</v>
       </c>
       <c r="K288" t="n">
-        <v>17.07317073170741</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L288" t="n">
         <v>38.84</v>
@@ -15137,7 +15159,7 @@
         <v>51.99999999999992</v>
       </c>
       <c r="K289" t="n">
-        <v>19.04761904761917</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L289" t="n">
         <v>38.84</v>
@@ -15188,7 +15210,7 @@
         <v>52.09999999999992</v>
       </c>
       <c r="K290" t="n">
-        <v>14.28571428571433</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>38.85</v>
@@ -15239,7 +15261,7 @@
         <v>52.49999999999992</v>
       </c>
       <c r="K291" t="n">
-        <v>-12.82051282051285</v>
+        <v>-20</v>
       </c>
       <c r="L291" t="n">
         <v>38.81</v>
@@ -15290,7 +15312,7 @@
         <v>52.59999999999992</v>
       </c>
       <c r="K292" t="n">
-        <v>-24.32432432432432</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L292" t="n">
         <v>38.77</v>
@@ -15341,7 +15363,7 @@
         <v>52.69999999999992</v>
       </c>
       <c r="K293" t="n">
-        <v>-6.666666666666761</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L293" t="n">
         <v>38.74</v>
@@ -15392,7 +15414,7 @@
         <v>53.09999999999992</v>
       </c>
       <c r="K294" t="n">
-        <v>-29.03225806451607</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L294" t="n">
         <v>38.66</v>
@@ -15443,7 +15465,7 @@
         <v>53.59999999999992</v>
       </c>
       <c r="K295" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L295" t="n">
         <v>38.64</v>
@@ -15494,7 +15516,7 @@
         <v>53.99999999999992</v>
       </c>
       <c r="K296" t="n">
-        <v>-29.7297297297298</v>
+        <v>-20</v>
       </c>
       <c r="L296" t="n">
         <v>38.58000000000001</v>
@@ -15545,7 +15567,7 @@
         <v>53.99999999999992</v>
       </c>
       <c r="K297" t="n">
-        <v>-25.71428571428573</v>
+        <v>-42.85714285714276</v>
       </c>
       <c r="L297" t="n">
         <v>38.53000000000001</v>
@@ -15596,7 +15618,7 @@
         <v>54.09999999999992</v>
       </c>
       <c r="K298" t="n">
-        <v>-31.42857142857153</v>
+        <v>-52.38095238095242</v>
       </c>
       <c r="L298" t="n">
         <v>38.43000000000001</v>
@@ -15647,7 +15669,7 @@
         <v>54.59999999999992</v>
       </c>
       <c r="K299" t="n">
-        <v>-15.00000000000006</v>
+        <v>-20</v>
       </c>
       <c r="L299" t="n">
         <v>38.37</v>
@@ -15698,7 +15720,7 @@
         <v>54.69999999999992</v>
       </c>
       <c r="K300" t="n">
-        <v>-7.692307692307636</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>38.33000000000001</v>
@@ -15749,7 +15771,7 @@
         <v>54.69999999999992</v>
       </c>
       <c r="K301" t="n">
-        <v>-10.52631578947367</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L301" t="n">
         <v>38.33000000000001</v>
@@ -15800,7 +15822,7 @@
         <v>54.79999999999993</v>
       </c>
       <c r="K302" t="n">
-        <v>-5.263157894736744</v>
+        <v>14.28571428571448</v>
       </c>
       <c r="L302" t="n">
         <v>38.35000000000001</v>
@@ -15851,7 +15873,7 @@
         <v>54.79999999999993</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L303" t="n">
         <v>38.38000000000001</v>
@@ -15902,7 +15924,7 @@
         <v>54.79999999999993</v>
       </c>
       <c r="K304" t="n">
-        <v>-2.857142857142695</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L304" t="n">
         <v>38.45</v>
@@ -15953,7 +15975,7 @@
         <v>54.79999999999993</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L305" t="n">
         <v>38.47000000000001</v>
@@ -16004,7 +16026,7 @@
         <v>54.79999999999993</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L306" t="n">
         <v>38.53</v>
@@ -16055,7 +16077,7 @@
         <v>55.09999999999992</v>
       </c>
       <c r="K307" t="n">
-        <v>11.11111111111107</v>
+        <v>100</v>
       </c>
       <c r="L307" t="n">
         <v>38.62</v>
@@ -16106,7 +16128,7 @@
         <v>55.49999999999992</v>
       </c>
       <c r="K308" t="n">
-        <v>-11.11111111111107</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L308" t="n">
         <v>38.68</v>
@@ -16157,7 +16179,7 @@
         <v>55.79999999999993</v>
       </c>
       <c r="K309" t="n">
-        <v>-21.05263157894746</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L309" t="n">
         <v>38.66</v>
@@ -16208,7 +16230,7 @@
         <v>55.79999999999993</v>
       </c>
       <c r="K310" t="n">
-        <v>-18.91891891891898</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L310" t="n">
         <v>38.63</v>
@@ -16259,7 +16281,7 @@
         <v>56.29999999999993</v>
       </c>
       <c r="K311" t="n">
-        <v>-21.05263157894746</v>
+        <v>-60.00000000000038</v>
       </c>
       <c r="L311" t="n">
         <v>38.55</v>
@@ -16310,7 +16332,7 @@
         <v>56.99999999999993</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L312" t="n">
         <v>38.53</v>
@@ -16361,7 +16383,7 @@
         <v>57.09999999999993</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>-13.04347826086973</v>
       </c>
       <c r="L313" t="n">
         <v>38.5</v>
@@ -16412,7 +16434,7 @@
         <v>57.09999999999993</v>
       </c>
       <c r="K314" t="n">
-        <v>9.999999999999947</v>
+        <v>-13.04347826086973</v>
       </c>
       <c r="L314" t="n">
         <v>38.47</v>
@@ -16463,7 +16485,7 @@
         <v>57.09999999999993</v>
       </c>
       <c r="K315" t="n">
-        <v>-2.857142857142892</v>
+        <v>-13.04347826086973</v>
       </c>
       <c r="L315" t="n">
         <v>38.44</v>
@@ -16514,7 +16536,7 @@
         <v>57.19999999999993</v>
       </c>
       <c r="K316" t="n">
-        <v>12.49999999999992</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L316" t="n">
         <v>38.42</v>
@@ -16565,7 +16587,7 @@
         <v>57.19999999999993</v>
       </c>
       <c r="K317" t="n">
-        <v>12.49999999999992</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L317" t="n">
         <v>38.37</v>
@@ -16616,7 +16638,7 @@
         <v>57.29999999999993</v>
       </c>
       <c r="K318" t="n">
-        <v>12.49999999999992</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L318" t="n">
         <v>38.34999999999999</v>
@@ -16667,7 +16689,7 @@
         <v>57.39999999999993</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L319" t="n">
         <v>38.36999999999999</v>
@@ -16718,7 +16740,7 @@
         <v>57.59999999999994</v>
       </c>
       <c r="K320" t="n">
-        <v>-10.344827586207</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L320" t="n">
         <v>38.36999999999999</v>
@@ -16769,7 +16791,7 @@
         <v>57.79999999999994</v>
       </c>
       <c r="K321" t="n">
-        <v>-3.225806451612933</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>38.43999999999999</v>
@@ -16820,7 +16842,7 @@
         <v>57.79999999999994</v>
       </c>
       <c r="K322" t="n">
-        <v>-6.66666666666673</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L322" t="n">
         <v>38.43999999999999</v>
@@ -16871,7 +16893,7 @@
         <v>57.99999999999994</v>
       </c>
       <c r="K323" t="n">
-        <v>-12.50000000000011</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L323" t="n">
         <v>38.42999999999999</v>
@@ -16922,7 +16944,7 @@
         <v>57.99999999999994</v>
       </c>
       <c r="K324" t="n">
-        <v>-12.50000000000011</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L324" t="n">
         <v>38.42</v>
@@ -16973,7 +16995,7 @@
         <v>57.99999999999994</v>
       </c>
       <c r="K325" t="n">
-        <v>-12.50000000000011</v>
+        <v>-25</v>
       </c>
       <c r="L325" t="n">
         <v>38.41</v>
@@ -17024,7 +17046,7 @@
         <v>58.29999999999994</v>
       </c>
       <c r="K326" t="n">
-        <v>-20</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L326" t="n">
         <v>38.36</v>
@@ -17075,7 +17097,7 @@
         <v>58.49999999999994</v>
       </c>
       <c r="K327" t="n">
-        <v>-23.52941176470566</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L327" t="n">
         <v>38.33</v>
@@ -17126,7 +17148,7 @@
         <v>58.59999999999994</v>
       </c>
       <c r="K328" t="n">
-        <v>-16.1290322580644</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L328" t="n">
         <v>38.3</v>
@@ -17177,7 +17199,7 @@
         <v>58.59999999999994</v>
       </c>
       <c r="K329" t="n">
-        <v>-7.142857142856944</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L329" t="n">
         <v>38.26000000000001</v>
@@ -17228,7 +17250,7 @@
         <v>58.69999999999995</v>
       </c>
       <c r="K330" t="n">
-        <v>-10.34482758620673</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L330" t="n">
         <v>38.23</v>
@@ -17279,7 +17301,7 @@
         <v>58.79999999999995</v>
       </c>
       <c r="K331" t="n">
-        <v>12.00000000000007</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L331" t="n">
         <v>38.19000000000001</v>
@@ -17330,7 +17352,7 @@
         <v>59.09999999999995</v>
       </c>
       <c r="K332" t="n">
-        <v>-33.33333333333311</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L332" t="n">
         <v>38.12000000000001</v>
@@ -17381,7 +17403,7 @@
         <v>59.29999999999995</v>
       </c>
       <c r="K333" t="n">
-        <v>-18.18181818181792</v>
+        <v>-23.07692307692266</v>
       </c>
       <c r="L333" t="n">
         <v>38.09000000000001</v>
@@ -17432,7 +17454,7 @@
         <v>59.39999999999996</v>
       </c>
       <c r="K334" t="n">
-        <v>-13.0434782608693</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L334" t="n">
         <v>38.07000000000001</v>
@@ -17483,7 +17505,7 @@
         <v>59.39999999999996</v>
       </c>
       <c r="K335" t="n">
-        <v>-13.0434782608693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L335" t="n">
         <v>38.05000000000001</v>
@@ -17534,7 +17556,7 @@
         <v>59.39999999999996</v>
       </c>
       <c r="K336" t="n">
-        <v>-18.18181818181792</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L336" t="n">
         <v>38.06000000000002</v>
@@ -17585,7 +17607,7 @@
         <v>59.49999999999996</v>
       </c>
       <c r="K337" t="n">
-        <v>-13.0434782608693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L337" t="n">
         <v>38.06000000000002</v>
@@ -17636,7 +17658,7 @@
         <v>59.59999999999995</v>
       </c>
       <c r="K338" t="n">
-        <v>-4.347826086956549</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L338" t="n">
         <v>38.08000000000001</v>
@@ -17687,7 +17709,7 @@
         <v>59.59999999999995</v>
       </c>
       <c r="K339" t="n">
-        <v>-9.09090909090915</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L339" t="n">
         <v>38.10000000000001</v>

--- a/BackTest/2019-10-25 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-25 BackTest LAMB.xlsx
@@ -451,17 +451,13 @@
         <v>36.43500000000008</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>36.43666666666675</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>36.43500000000009</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>36.42500000000009</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>35.9</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>36.42333333333342</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>36.41666666666676</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>36.41000000000009</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,65 +696,55 @@
         <v>36.40166666666676</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C10" t="n">
         <v>36.2</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="D10" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5590</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36.40000000000008</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5590</v>
-      </c>
-      <c r="G10" t="n">
-        <v>36.40000000000008</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -832,11 +778,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K11" t="n">
         <v>36.2</v>
       </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -875,11 +819,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>36.2</v>
-      </c>
+        <v>35.6</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -918,11 +860,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>36.2</v>
-      </c>
+        <v>35.8</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -955,17 +895,13 @@
         <v>36.35000000000007</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -998,17 +934,13 @@
         <v>36.34166666666674</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1041,17 +973,13 @@
         <v>36.34500000000007</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1084,17 +1012,13 @@
         <v>36.35000000000007</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1135,9 +1059,7 @@
       <c r="J18" t="n">
         <v>36.8</v>
       </c>
-      <c r="K18" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1170,17 +1092,13 @@
         <v>36.37666666666675</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1213,17 +1131,13 @@
         <v>36.39000000000008</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>37</v>
-      </c>
-      <c r="K20" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1262,9 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1303,9 +1215,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1344,9 +1254,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1385,9 +1293,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1426,9 +1332,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1467,9 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1508,9 +1410,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1543,17 +1443,13 @@
         <v>36.35166666666675</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>36</v>
-      </c>
-      <c r="K28" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1586,17 +1482,13 @@
         <v>36.34333333333341</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1629,17 +1521,13 @@
         <v>36.34000000000008</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1672,17 +1560,13 @@
         <v>36.35333333333342</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="K31" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1715,17 +1599,13 @@
         <v>36.36500000000008</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1764,9 +1644,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1805,9 +1683,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1846,9 +1722,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1887,9 +1761,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,9 +1800,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1969,9 +1839,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,9 +1878,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2051,9 +1917,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,9 +1956,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2133,9 +1995,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2174,9 +2034,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2215,9 +2073,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2256,9 +2112,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2297,9 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2338,9 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2379,9 +2229,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2420,9 +2268,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2461,9 +2307,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2502,9 +2346,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2543,9 +2385,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2584,9 +2424,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2625,9 +2463,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2666,9 +2502,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2707,9 +2541,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,9 +2580,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2789,9 +2619,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2830,9 +2658,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2865,17 +2691,13 @@
         <v>36.44000000000003</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="K60" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2908,17 +2730,13 @@
         <v>36.45333333333335</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="K61" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2957,9 +2775,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2998,9 +2814,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3039,9 +2853,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3080,9 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,9 +2931,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,9 +2970,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3203,9 +3009,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3244,9 +3048,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,9 +3087,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3326,9 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3367,9 +3165,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,9 +3204,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3449,9 +3243,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,9 +3282,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,9 +3321,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,9 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,9 +3399,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,9 +3438,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,9 +3477,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3736,9 +3516,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3777,9 +3555,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3818,9 +3594,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3859,9 +3633,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3900,9 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3941,9 +3711,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,9 +3750,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4023,9 +3789,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,9 +3828,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4105,9 +3867,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,9 +3906,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4187,9 +3945,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,9 +3984,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,9 +4023,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4310,9 +4062,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,9 +4101,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4392,9 +4140,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,9 +4179,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4474,9 +4218,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4515,9 +4257,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,9 +4296,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,9 +4335,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4638,9 +4374,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,9 +4413,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,9 +4452,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,9 +4491,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,9 +4530,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4843,9 +4569,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4884,9 +4608,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,20 +4644,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4966,14 +4684,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4719,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5048,14 +4754,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +4789,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5130,14 +4824,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5171,14 +4859,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5212,14 +4894,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5253,14 +4929,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5294,14 +4964,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5335,14 +4999,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5376,14 +5034,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5417,14 +5069,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +5104,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5499,14 +5139,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5537,19 +5171,13 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>1.072348066298343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5613,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5648,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5683,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5718,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5788,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -6558,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>

--- a/BackTest/2019-10-25 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-25 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M318"/>
+  <dimension ref="A1:M319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>36.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>4236.009</v>
       </c>
       <c r="G2" t="n">
-        <v>36.43500000000008</v>
+        <v>36.43666666666675</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>36.3</v>
       </c>
       <c r="F3" t="n">
-        <v>12892.0389</v>
+        <v>2500</v>
       </c>
       <c r="G3" t="n">
-        <v>36.43666666666675</v>
+        <v>36.43500000000008</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>36.3</v>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>12892.0389</v>
       </c>
       <c r="G4" t="n">
-        <v>36.43500000000009</v>
+        <v>36.43666666666675</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="C5" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="D5" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="E5" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="F5" t="n">
-        <v>66907.36659999999</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="n">
-        <v>36.42500000000009</v>
+        <v>36.43500000000009</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.2</v>
+        <v>35.9</v>
       </c>
       <c r="C6" t="n">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="D6" t="n">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="E6" t="n">
-        <v>36.2</v>
+        <v>35.9</v>
       </c>
       <c r="F6" t="n">
-        <v>5500</v>
+        <v>66907.36659999999</v>
       </c>
       <c r="G6" t="n">
-        <v>36.42333333333342</v>
+        <v>36.42500000000009</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>36.2</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D7" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E7" t="n">
         <v>36.2</v>
       </c>
       <c r="F7" t="n">
-        <v>43024.9171</v>
+        <v>5500</v>
       </c>
       <c r="G7" t="n">
-        <v>36.41666666666676</v>
+        <v>36.42333333333342</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>36.2</v>
       </c>
       <c r="F8" t="n">
-        <v>1500</v>
+        <v>43024.9171</v>
       </c>
       <c r="G8" t="n">
-        <v>36.41000000000009</v>
+        <v>36.41666666666676</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.7</v>
+        <v>36.2</v>
       </c>
       <c r="C9" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="D9" t="n">
-        <v>36.7</v>
+        <v>36.2</v>
       </c>
       <c r="E9" t="n">
-        <v>35.7</v>
+        <v>36.2</v>
       </c>
       <c r="F9" t="n">
-        <v>60938.1978</v>
+        <v>1500</v>
       </c>
       <c r="G9" t="n">
-        <v>36.40166666666676</v>
+        <v>36.41000000000009</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,826 +713,754 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C10" t="n">
         <v>35.9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60938.1978</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36.40166666666676</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C11" t="n">
         <v>36.2</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>36.3</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>35.8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>5590</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>36.40000000000008</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10900</v>
+      </c>
+      <c r="G12" t="n">
+        <v>36.38833333333341</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>500</v>
+      </c>
+      <c r="G13" t="n">
+        <v>36.38000000000008</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>95000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>36.36333333333341</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>510</v>
+      </c>
+      <c r="G15" t="n">
+        <v>36.35000000000007</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10411.6728</v>
+      </c>
+      <c r="G16" t="n">
+        <v>36.34166666666674</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36</v>
+      </c>
+      <c r="D17" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>42942.8487</v>
+      </c>
+      <c r="G17" t="n">
+        <v>36.34500000000007</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6937.8307</v>
+      </c>
+      <c r="G18" t="n">
+        <v>36.35000000000007</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>36</v>
+      </c>
+      <c r="K18" t="n">
+        <v>36</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5337.8859</v>
+      </c>
+      <c r="G19" t="n">
+        <v>36.36333333333341</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>36</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>500</v>
+      </c>
+      <c r="G20" t="n">
+        <v>36.37666666666675</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>36</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>37</v>
+      </c>
+      <c r="C21" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6543</v>
+      </c>
+      <c r="G21" t="n">
+        <v>36.39000000000008</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5530.0967</v>
+      </c>
+      <c r="G22" t="n">
+        <v>36.39333333333342</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27883.0173</v>
+      </c>
+      <c r="G23" t="n">
+        <v>36.39166666666674</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2855.013550135501</v>
+      </c>
+      <c r="G24" t="n">
+        <v>36.39000000000008</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>35015</v>
+      </c>
+      <c r="G25" t="n">
+        <v>36.38166666666675</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1227.8621</v>
+      </c>
+      <c r="G26" t="n">
+        <v>36.37666666666675</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1227.862</v>
+      </c>
+      <c r="G27" t="n">
+        <v>36.36833333333342</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>36</v>
+      </c>
+      <c r="G28" t="n">
+        <v>36.36166666666675</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36</v>
+      </c>
+      <c r="C29" t="n">
         <v>35.9</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="D29" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9010</v>
+      </c>
+      <c r="G29" t="n">
+        <v>36.35166666666675</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F30" t="n">
+        <v>48400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>36.34333333333341</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10900</v>
-      </c>
-      <c r="G11" t="n">
-        <v>36.38833333333341</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>500</v>
-      </c>
-      <c r="G12" t="n">
-        <v>36.38000000000008</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>95000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>36.36333333333341</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>510</v>
-      </c>
-      <c r="G14" t="n">
-        <v>36.35000000000007</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10411.6728</v>
-      </c>
-      <c r="G15" t="n">
-        <v>36.34166666666674</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>36</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>42942.8487</v>
-      </c>
-      <c r="G16" t="n">
-        <v>36.34500000000007</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6937.8307</v>
-      </c>
-      <c r="G17" t="n">
-        <v>36.35000000000007</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5337.8859</v>
-      </c>
-      <c r="G18" t="n">
-        <v>36.36333333333341</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>500</v>
-      </c>
-      <c r="G19" t="n">
-        <v>36.37666666666675</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>37</v>
-      </c>
-      <c r="C20" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6543</v>
-      </c>
-      <c r="G20" t="n">
-        <v>36.39000000000008</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5530.0967</v>
-      </c>
-      <c r="G21" t="n">
-        <v>36.39333333333342</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>27883.0173</v>
-      </c>
-      <c r="G22" t="n">
-        <v>36.39166666666674</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C23" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D23" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2855.013550135501</v>
-      </c>
-      <c r="G23" t="n">
-        <v>36.39000000000008</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E24" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>35015</v>
-      </c>
-      <c r="G24" t="n">
-        <v>36.38166666666675</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E25" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1227.8621</v>
-      </c>
-      <c r="G25" t="n">
-        <v>36.37666666666675</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1227.862</v>
-      </c>
-      <c r="G26" t="n">
-        <v>36.36833333333342</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>36</v>
-      </c>
-      <c r="G27" t="n">
-        <v>36.36166666666675</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>36</v>
-      </c>
-      <c r="C28" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="D28" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E28" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F28" t="n">
-        <v>9010</v>
-      </c>
-      <c r="G28" t="n">
-        <v>36.35166666666675</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C29" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>48400</v>
-      </c>
-      <c r="G29" t="n">
-        <v>36.34333333333341</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>904.095</v>
-      </c>
-      <c r="G30" t="n">
-        <v>36.34000000000008</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1542,30 +1470,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="C31" t="n">
-        <v>37.2</v>
+        <v>36.4</v>
       </c>
       <c r="D31" t="n">
-        <v>37.2</v>
+        <v>36.4</v>
       </c>
       <c r="E31" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="F31" t="n">
-        <v>2010</v>
+        <v>904.095</v>
       </c>
       <c r="G31" t="n">
-        <v>36.35333333333342</v>
+        <v>36.34000000000008</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>36.3</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1581,7 +1511,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>37.2</v>
+        <v>36.7</v>
       </c>
       <c r="C32" t="n">
         <v>37.2</v>
@@ -1590,13 +1520,13 @@
         <v>37.2</v>
       </c>
       <c r="E32" t="n">
-        <v>37.2</v>
+        <v>36.7</v>
       </c>
       <c r="F32" t="n">
-        <v>479.6432</v>
+        <v>2010</v>
       </c>
       <c r="G32" t="n">
-        <v>36.36500000000008</v>
+        <v>36.35333333333342</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1632,10 +1562,10 @@
         <v>37.2</v>
       </c>
       <c r="F33" t="n">
-        <v>3796.2438</v>
+        <v>479.6432</v>
       </c>
       <c r="G33" t="n">
-        <v>36.37666666666674</v>
+        <v>36.36500000000008</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1659,22 +1589,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36.7</v>
+        <v>37.2</v>
       </c>
       <c r="C34" t="n">
-        <v>36.7</v>
+        <v>37.2</v>
       </c>
       <c r="D34" t="n">
-        <v>36.7</v>
+        <v>37.2</v>
       </c>
       <c r="E34" t="n">
-        <v>36.7</v>
+        <v>37.2</v>
       </c>
       <c r="F34" t="n">
-        <v>42.5</v>
+        <v>3796.2438</v>
       </c>
       <c r="G34" t="n">
-        <v>36.38000000000007</v>
+        <v>36.37666666666674</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1710,10 +1640,10 @@
         <v>36.7</v>
       </c>
       <c r="F35" t="n">
-        <v>39400</v>
+        <v>42.5</v>
       </c>
       <c r="G35" t="n">
-        <v>36.3833333333334</v>
+        <v>36.38000000000007</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1737,22 +1667,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="D36" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="E36" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="F36" t="n">
-        <v>9865.4054</v>
+        <v>39400</v>
       </c>
       <c r="G36" t="n">
-        <v>36.3933333333334</v>
+        <v>36.3833333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1776,22 +1706,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="C37" t="n">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="D37" t="n">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="E37" t="n">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="F37" t="n">
-        <v>2000</v>
+        <v>9865.4054</v>
       </c>
       <c r="G37" t="n">
-        <v>36.39500000000007</v>
+        <v>36.3933333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1815,22 +1745,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C38" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="D38" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E38" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G38" t="n">
-        <v>36.4033333333334</v>
+        <v>36.39500000000007</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1854,22 +1784,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="C39" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="D39" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="E39" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="F39" t="n">
-        <v>876.9238</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>36.40666666666674</v>
+        <v>36.4033333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1893,22 +1823,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="C40" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="D40" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="E40" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="F40" t="n">
-        <v>609.9931</v>
+        <v>876.9238</v>
       </c>
       <c r="G40" t="n">
-        <v>36.4133333333334</v>
+        <v>36.40666666666674</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1932,22 +1862,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>36.7</v>
       </c>
       <c r="D41" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="E41" t="n">
-        <v>36</v>
+        <v>36.7</v>
       </c>
       <c r="F41" t="n">
-        <v>299874.8819</v>
+        <v>609.9931</v>
       </c>
       <c r="G41" t="n">
-        <v>36.4083333333334</v>
+        <v>36.4133333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1971,22 +1901,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C42" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="D42" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E42" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="F42" t="n">
-        <v>314664.1586</v>
+        <v>299874.8819</v>
       </c>
       <c r="G42" t="n">
-        <v>36.41000000000006</v>
+        <v>36.4083333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2013,19 +1943,19 @@
         <v>36.5</v>
       </c>
       <c r="C43" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D43" t="n">
         <v>36.6</v>
       </c>
-      <c r="D43" t="n">
-        <v>36.7</v>
-      </c>
       <c r="E43" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="F43" t="n">
-        <v>166517.6093</v>
+        <v>314664.1586</v>
       </c>
       <c r="G43" t="n">
-        <v>36.41666666666673</v>
+        <v>36.41000000000006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2049,22 +1979,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C44" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D44" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E44" t="n">
         <v>36.3</v>
       </c>
       <c r="F44" t="n">
-        <v>6469</v>
+        <v>166517.6093</v>
       </c>
       <c r="G44" t="n">
-        <v>36.41833333333339</v>
+        <v>36.41666666666673</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2088,22 +2018,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C45" t="n">
         <v>36.5</v>
       </c>
-      <c r="C45" t="n">
-        <v>36.4</v>
-      </c>
       <c r="D45" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E45" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F45" t="n">
-        <v>13700</v>
+        <v>6469</v>
       </c>
       <c r="G45" t="n">
-        <v>36.42000000000006</v>
+        <v>36.41833333333339</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2127,22 +2057,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C46" t="n">
         <v>36.4</v>
       </c>
-      <c r="C46" t="n">
-        <v>36.3</v>
-      </c>
       <c r="D46" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E46" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F46" t="n">
-        <v>1500</v>
+        <v>13700</v>
       </c>
       <c r="G46" t="n">
-        <v>36.4133333333334</v>
+        <v>36.42000000000006</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2166,22 +2096,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C47" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="D47" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E47" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G47" t="n">
-        <v>36.41500000000006</v>
+        <v>36.4133333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2205,22 +2135,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C48" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D48" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E48" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F48" t="n">
-        <v>2109</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>36.41666666666673</v>
+        <v>36.41500000000006</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2247,19 +2177,19 @@
         <v>36.7</v>
       </c>
       <c r="C49" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="D49" t="n">
         <v>36.7</v>
       </c>
       <c r="E49" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F49" t="n">
-        <v>500</v>
+        <v>2109</v>
       </c>
       <c r="G49" t="n">
-        <v>36.42166666666672</v>
+        <v>36.41666666666673</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2286,19 +2216,19 @@
         <v>36.7</v>
       </c>
       <c r="C50" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D50" t="n">
         <v>36.7</v>
       </c>
       <c r="E50" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="F50" t="n">
-        <v>5171.4986</v>
+        <v>500</v>
       </c>
       <c r="G50" t="n">
-        <v>36.42333333333339</v>
+        <v>36.42166666666672</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2322,22 +2252,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="C51" t="n">
         <v>36.6</v>
       </c>
       <c r="D51" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E51" t="n">
         <v>36.6</v>
       </c>
       <c r="F51" t="n">
-        <v>11445.0546</v>
+        <v>5171.4986</v>
       </c>
       <c r="G51" t="n">
-        <v>36.42833333333338</v>
+        <v>36.42333333333339</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2361,22 +2291,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C52" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D52" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E52" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F52" t="n">
-        <v>73201</v>
+        <v>11445.0546</v>
       </c>
       <c r="G52" t="n">
-        <v>36.43166666666671</v>
+        <v>36.42833333333338</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2400,22 +2330,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C53" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D53" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E53" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F53" t="n">
-        <v>75964.20630000001</v>
+        <v>73201</v>
       </c>
       <c r="G53" t="n">
-        <v>36.43500000000004</v>
+        <v>36.43166666666671</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2439,19 +2369,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C54" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D54" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="E54" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F54" t="n">
-        <v>858.9007</v>
+        <v>75964.20630000001</v>
       </c>
       <c r="G54" t="n">
         <v>36.43500000000004</v>
@@ -2490,10 +2420,10 @@
         <v>36.4</v>
       </c>
       <c r="F55" t="n">
-        <v>1609.0612</v>
+        <v>858.9007</v>
       </c>
       <c r="G55" t="n">
-        <v>36.43666666666671</v>
+        <v>36.43500000000004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2520,19 +2450,19 @@
         <v>36.4</v>
       </c>
       <c r="C56" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D56" t="n">
         <v>36.4</v>
       </c>
       <c r="E56" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="F56" t="n">
-        <v>17200</v>
+        <v>1609.0612</v>
       </c>
       <c r="G56" t="n">
-        <v>36.43500000000004</v>
+        <v>36.43666666666671</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2559,19 +2489,19 @@
         <v>36.4</v>
       </c>
       <c r="C57" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="D57" t="n">
         <v>36.4</v>
       </c>
       <c r="E57" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>17200</v>
       </c>
       <c r="G57" t="n">
-        <v>36.4366666666667</v>
+        <v>36.43500000000004</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2595,22 +2525,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C58" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D58" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E58" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="F58" t="n">
-        <v>957.6781999999999</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>36.43500000000003</v>
+        <v>36.4366666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2646,10 +2576,10 @@
         <v>36.2</v>
       </c>
       <c r="F59" t="n">
-        <v>7385.5404</v>
+        <v>957.6781999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>36.42833333333336</v>
+        <v>36.43500000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2673,22 +2603,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>36.7</v>
+        <v>36.2</v>
       </c>
       <c r="C60" t="n">
-        <v>37</v>
+        <v>36.2</v>
       </c>
       <c r="D60" t="n">
-        <v>37</v>
+        <v>36.2</v>
       </c>
       <c r="E60" t="n">
-        <v>36.7</v>
+        <v>36.2</v>
       </c>
       <c r="F60" t="n">
-        <v>6512.5592</v>
+        <v>7385.5404</v>
       </c>
       <c r="G60" t="n">
-        <v>36.44000000000003</v>
+        <v>36.42833333333336</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2712,22 +2642,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C61" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="D61" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="E61" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F61" t="n">
-        <v>51546</v>
+        <v>6512.5592</v>
       </c>
       <c r="G61" t="n">
-        <v>36.45333333333335</v>
+        <v>36.44000000000003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2751,22 +2681,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C62" t="n">
         <v>37.1</v>
       </c>
-      <c r="C62" t="n">
-        <v>37.2</v>
-      </c>
       <c r="D62" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="E62" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="F62" t="n">
-        <v>13378</v>
+        <v>51546</v>
       </c>
       <c r="G62" t="n">
-        <v>36.46833333333335</v>
+        <v>36.45333333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2790,22 +2720,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>36.5</v>
+        <v>37.1</v>
       </c>
       <c r="C63" t="n">
-        <v>36.5</v>
+        <v>37.2</v>
       </c>
       <c r="D63" t="n">
-        <v>36.5</v>
+        <v>37.2</v>
       </c>
       <c r="E63" t="n">
-        <v>36.5</v>
+        <v>37.1</v>
       </c>
       <c r="F63" t="n">
-        <v>726.9852</v>
+        <v>13378</v>
       </c>
       <c r="G63" t="n">
-        <v>36.47166666666668</v>
+        <v>36.46833333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2829,22 +2759,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C64" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D64" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E64" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F64" t="n">
-        <v>4000</v>
+        <v>726.9852</v>
       </c>
       <c r="G64" t="n">
-        <v>36.47666666666667</v>
+        <v>36.47166666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2868,22 +2798,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="C65" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="D65" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="E65" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="F65" t="n">
-        <v>33400</v>
+        <v>4000</v>
       </c>
       <c r="G65" t="n">
-        <v>36.49333333333334</v>
+        <v>36.47666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2907,22 +2837,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C66" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="D66" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E66" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F66" t="n">
-        <v>500</v>
+        <v>33400</v>
       </c>
       <c r="G66" t="n">
-        <v>36.50333333333334</v>
+        <v>36.49333333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2949,19 +2879,19 @@
         <v>37</v>
       </c>
       <c r="C67" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="D67" t="n">
         <v>37</v>
       </c>
       <c r="E67" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="F67" t="n">
-        <v>9000</v>
+        <v>500</v>
       </c>
       <c r="G67" t="n">
-        <v>36.51500000000001</v>
+        <v>36.50333333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2985,7 +2915,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
         <v>36.9</v>
@@ -2997,10 +2927,10 @@
         <v>36.9</v>
       </c>
       <c r="F68" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G68" t="n">
-        <v>36.52666666666668</v>
+        <v>36.51500000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3030,16 +2960,16 @@
         <v>36.9</v>
       </c>
       <c r="D69" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E69" t="n">
         <v>36.9</v>
       </c>
       <c r="F69" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="G69" t="n">
-        <v>36.54333333333334</v>
+        <v>36.52666666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3063,22 +2993,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C70" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="D70" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E70" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>5500</v>
       </c>
       <c r="G70" t="n">
-        <v>36.55666666666669</v>
+        <v>36.54333333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3102,22 +3032,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="C71" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="D71" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E71" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>36.57833333333335</v>
+        <v>36.55666666666669</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3153,10 +3083,10 @@
         <v>36.9</v>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G72" t="n">
-        <v>36.59666666666669</v>
+        <v>36.57833333333335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3186,16 +3116,16 @@
         <v>36.9</v>
       </c>
       <c r="D73" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E73" t="n">
         <v>36.9</v>
       </c>
       <c r="F73" t="n">
-        <v>20200</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="n">
-        <v>36.62000000000002</v>
+        <v>36.59666666666669</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3222,7 +3152,7 @@
         <v>36.9</v>
       </c>
       <c r="C74" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="D74" t="n">
         <v>37</v>
@@ -3231,10 +3161,10 @@
         <v>36.9</v>
       </c>
       <c r="F74" t="n">
-        <v>4000</v>
+        <v>20200</v>
       </c>
       <c r="G74" t="n">
-        <v>36.64166666666669</v>
+        <v>36.62000000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3258,22 +3188,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="C75" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="E75" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="F75" t="n">
-        <v>728.9166</v>
+        <v>4000</v>
       </c>
       <c r="G75" t="n">
-        <v>36.65000000000002</v>
+        <v>36.64166666666669</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3297,22 +3227,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C76" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D76" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="E76" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F76" t="n">
-        <v>16977.4593</v>
+        <v>728.9166</v>
       </c>
       <c r="G76" t="n">
-        <v>36.65833333333335</v>
+        <v>36.65000000000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3336,22 +3266,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C77" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="D77" t="n">
         <v>36.9</v>
       </c>
       <c r="E77" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="F77" t="n">
-        <v>1000</v>
+        <v>16977.4593</v>
       </c>
       <c r="G77" t="n">
-        <v>36.66000000000002</v>
+        <v>36.65833333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3378,19 +3308,19 @@
         <v>36.9</v>
       </c>
       <c r="C78" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="D78" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E78" t="n">
         <v>36.9</v>
       </c>
       <c r="F78" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>36.65500000000002</v>
+        <v>36.66000000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3414,22 +3344,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C79" t="n">
         <v>37</v>
       </c>
-      <c r="C79" t="n">
-        <v>37.1</v>
-      </c>
       <c r="D79" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="E79" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F79" t="n">
-        <v>28800</v>
+        <v>500</v>
       </c>
       <c r="G79" t="n">
-        <v>36.65166666666668</v>
+        <v>36.65500000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3453,7 +3383,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="C80" t="n">
         <v>37.1</v>
@@ -3462,13 +3392,13 @@
         <v>37.1</v>
       </c>
       <c r="E80" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="F80" t="n">
-        <v>40200</v>
+        <v>28800</v>
       </c>
       <c r="G80" t="n">
-        <v>36.65000000000001</v>
+        <v>36.65166666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3492,22 +3422,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="C81" t="n">
         <v>37.1</v>
       </c>
       <c r="D81" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="E81" t="n">
         <v>37.1</v>
       </c>
       <c r="F81" t="n">
-        <v>4046.9477</v>
+        <v>40200</v>
       </c>
       <c r="G81" t="n">
-        <v>36.65500000000001</v>
+        <v>36.65000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3534,19 +3464,19 @@
         <v>37.2</v>
       </c>
       <c r="C82" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="D82" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="E82" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="F82" t="n">
-        <v>40000</v>
+        <v>4046.9477</v>
       </c>
       <c r="G82" t="n">
-        <v>36.66500000000001</v>
+        <v>36.65500000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3570,10 +3500,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="C83" t="n">
         <v>37.3</v>
-      </c>
-      <c r="C83" t="n">
-        <v>37.2</v>
       </c>
       <c r="D83" t="n">
         <v>37.3</v>
@@ -3582,10 +3512,10 @@
         <v>37.2</v>
       </c>
       <c r="F83" t="n">
-        <v>5056.9999</v>
+        <v>40000</v>
       </c>
       <c r="G83" t="n">
-        <v>36.67500000000002</v>
+        <v>36.66500000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3612,19 +3542,19 @@
         <v>37.3</v>
       </c>
       <c r="C84" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="D84" t="n">
         <v>37.3</v>
       </c>
       <c r="E84" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>5056.9999</v>
       </c>
       <c r="G84" t="n">
-        <v>36.69333333333336</v>
+        <v>36.67500000000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3660,10 +3590,10 @@
         <v>37.3</v>
       </c>
       <c r="F85" t="n">
-        <v>100100</v>
+        <v>1000</v>
       </c>
       <c r="G85" t="n">
-        <v>36.71000000000002</v>
+        <v>36.69333333333336</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3690,19 +3620,19 @@
         <v>37.3</v>
       </c>
       <c r="C86" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="D86" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="E86" t="n">
         <v>37.3</v>
       </c>
       <c r="F86" t="n">
-        <v>93304.8636</v>
+        <v>100100</v>
       </c>
       <c r="G86" t="n">
-        <v>36.73166666666669</v>
+        <v>36.71000000000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3726,7 +3656,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="C87" t="n">
         <v>37.4</v>
@@ -3735,13 +3665,13 @@
         <v>37.4</v>
       </c>
       <c r="E87" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="F87" t="n">
-        <v>1501.2078</v>
+        <v>93304.8636</v>
       </c>
       <c r="G87" t="n">
-        <v>36.75166666666669</v>
+        <v>36.73166666666669</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3777,10 +3707,10 @@
         <v>37.4</v>
       </c>
       <c r="F88" t="n">
-        <v>9721.8667</v>
+        <v>1501.2078</v>
       </c>
       <c r="G88" t="n">
-        <v>36.77666666666669</v>
+        <v>36.75166666666669</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3804,22 +3734,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="C89" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="D89" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="E89" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="F89" t="n">
-        <v>3000</v>
+        <v>9721.8667</v>
       </c>
       <c r="G89" t="n">
-        <v>36.79166666666669</v>
+        <v>36.77666666666669</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3843,22 +3773,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="C90" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="D90" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="E90" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="F90" t="n">
-        <v>747.1271</v>
+        <v>3000</v>
       </c>
       <c r="G90" t="n">
-        <v>36.80333333333336</v>
+        <v>36.79166666666669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3894,10 +3824,10 @@
         <v>37.1</v>
       </c>
       <c r="F91" t="n">
-        <v>4000</v>
+        <v>747.1271</v>
       </c>
       <c r="G91" t="n">
-        <v>36.80166666666669</v>
+        <v>36.80333333333336</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3933,10 +3863,10 @@
         <v>37.1</v>
       </c>
       <c r="F92" t="n">
-        <v>62361.8606</v>
+        <v>4000</v>
       </c>
       <c r="G92" t="n">
-        <v>36.80000000000003</v>
+        <v>36.80166666666669</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3972,10 +3902,10 @@
         <v>37.1</v>
       </c>
       <c r="F93" t="n">
-        <v>13812.1428</v>
+        <v>62361.8606</v>
       </c>
       <c r="G93" t="n">
-        <v>36.79833333333336</v>
+        <v>36.80000000000003</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4002,19 +3932,19 @@
         <v>37.1</v>
       </c>
       <c r="C94" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="D94" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="E94" t="n">
         <v>37.1</v>
       </c>
       <c r="F94" t="n">
-        <v>12391.1231</v>
+        <v>13812.1428</v>
       </c>
       <c r="G94" t="n">
-        <v>36.80666666666669</v>
+        <v>36.79833333333336</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4038,7 +3968,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="C95" t="n">
         <v>37.2</v>
@@ -4047,13 +3977,13 @@
         <v>37.2</v>
       </c>
       <c r="E95" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="F95" t="n">
-        <v>74400</v>
+        <v>12391.1231</v>
       </c>
       <c r="G95" t="n">
-        <v>36.81500000000003</v>
+        <v>36.80666666666669</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4080,19 +4010,19 @@
         <v>37.2</v>
       </c>
       <c r="C96" t="n">
-        <v>38</v>
+        <v>37.2</v>
       </c>
       <c r="D96" t="n">
-        <v>38</v>
+        <v>37.2</v>
       </c>
       <c r="E96" t="n">
         <v>37.2</v>
       </c>
       <c r="F96" t="n">
-        <v>185439.888</v>
+        <v>74400</v>
       </c>
       <c r="G96" t="n">
-        <v>36.83166666666669</v>
+        <v>36.81500000000003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4116,7 +4046,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>38</v>
+        <v>37.2</v>
       </c>
       <c r="C97" t="n">
         <v>38</v>
@@ -4125,13 +4055,13 @@
         <v>38</v>
       </c>
       <c r="E97" t="n">
-        <v>38</v>
+        <v>37.2</v>
       </c>
       <c r="F97" t="n">
-        <v>59535.3157</v>
+        <v>185439.888</v>
       </c>
       <c r="G97" t="n">
-        <v>36.85666666666669</v>
+        <v>36.83166666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4161,16 +4091,16 @@
         <v>38</v>
       </c>
       <c r="D98" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="E98" t="n">
         <v>38</v>
       </c>
       <c r="F98" t="n">
-        <v>116160.159</v>
+        <v>59535.3157</v>
       </c>
       <c r="G98" t="n">
-        <v>36.87666666666669</v>
+        <v>36.85666666666669</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4197,43 +4127,41 @@
         <v>38</v>
       </c>
       <c r="C99" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="D99" t="n">
         <v>38.4</v>
       </c>
       <c r="E99" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="F99" t="n">
-        <v>64024.2857</v>
+        <v>116160.159</v>
       </c>
       <c r="G99" t="n">
-        <v>36.91000000000002</v>
+        <v>36.87666666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="C100" t="n">
         <v>38.4</v>
@@ -4242,27 +4170,23 @@
         <v>38.4</v>
       </c>
       <c r="E100" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="F100" t="n">
-        <v>3826</v>
+        <v>64024.2857</v>
       </c>
       <c r="G100" t="n">
-        <v>36.93833333333336</v>
+        <v>36.91000000000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4272,7 +4196,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="C101" t="n">
         <v>38.4</v>
@@ -4281,27 +4205,23 @@
         <v>38.4</v>
       </c>
       <c r="E101" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="F101" t="n">
-        <v>11487.8255</v>
+        <v>3826</v>
       </c>
       <c r="G101" t="n">
-        <v>36.97833333333336</v>
+        <v>36.93833333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4311,36 +4231,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="C102" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="D102" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="E102" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="F102" t="n">
-        <v>1213</v>
+        <v>11487.8255</v>
       </c>
       <c r="G102" t="n">
-        <v>37.01166666666669</v>
+        <v>36.97833333333336</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4350,7 +4266,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="C103" t="n">
         <v>38.5</v>
@@ -4359,27 +4275,23 @@
         <v>38.5</v>
       </c>
       <c r="E103" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="F103" t="n">
-        <v>832</v>
+        <v>1213</v>
       </c>
       <c r="G103" t="n">
-        <v>37.04333333333336</v>
+        <v>37.01166666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4389,36 +4301,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C104" t="n">
         <v>38.5</v>
       </c>
-      <c r="C104" t="n">
-        <v>38.7</v>
-      </c>
       <c r="D104" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="E104" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="F104" t="n">
-        <v>5884</v>
+        <v>832</v>
       </c>
       <c r="G104" t="n">
-        <v>37.08000000000003</v>
+        <v>37.04333333333336</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4428,36 +4336,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="C105" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="D105" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="E105" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>5884</v>
       </c>
       <c r="G105" t="n">
-        <v>37.12000000000003</v>
+        <v>37.08000000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4467,22 +4371,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="C106" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="D106" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="E106" t="n">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="F106" t="n">
-        <v>11609.8255</v>
+        <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>37.15833333333335</v>
+        <v>37.12000000000003</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4492,11 +4396,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4506,36 +4406,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>38.3</v>
+        <v>38.7</v>
       </c>
       <c r="C107" t="n">
         <v>38.6</v>
       </c>
       <c r="D107" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="E107" t="n">
         <v>38.3</v>
       </c>
       <c r="F107" t="n">
-        <v>64927.8026</v>
+        <v>11609.8255</v>
       </c>
       <c r="G107" t="n">
-        <v>37.19333333333336</v>
+        <v>37.15833333333335</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4545,22 +4441,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C108" t="n">
         <v>38.6</v>
       </c>
-      <c r="C108" t="n">
-        <v>38.8</v>
-      </c>
       <c r="D108" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="E108" t="n">
-        <v>38.6</v>
+        <v>38.3</v>
       </c>
       <c r="F108" t="n">
-        <v>18014.48880850515</v>
+        <v>64927.8026</v>
       </c>
       <c r="G108" t="n">
-        <v>37.23000000000003</v>
+        <v>37.19333333333336</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4570,11 +4466,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4584,22 +4476,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="C109" t="n">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="D109" t="n">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="E109" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="F109" t="n">
-        <v>1665.8877</v>
+        <v>18014.48880850515</v>
       </c>
       <c r="G109" t="n">
-        <v>37.2566666666667</v>
+        <v>37.23000000000003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4609,11 +4501,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4623,59 +4511,57 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="C110" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="D110" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="E110" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="F110" t="n">
-        <v>784.5238000000001</v>
+        <v>1665.8877</v>
       </c>
       <c r="G110" t="n">
-        <v>37.28333333333337</v>
+        <v>37.2566666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="C111" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="D111" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="E111" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="F111" t="n">
-        <v>742.3942</v>
+        <v>784.5238000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>37.30500000000004</v>
+        <v>37.28333333333337</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4695,22 +4581,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="C112" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="D112" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="E112" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="F112" t="n">
-        <v>12800</v>
+        <v>742.3942</v>
       </c>
       <c r="G112" t="n">
-        <v>37.33500000000004</v>
+        <v>37.30500000000004</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4730,22 +4616,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C113" t="n">
         <v>38.3</v>
       </c>
-      <c r="C113" t="n">
-        <v>38.5</v>
-      </c>
       <c r="D113" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="E113" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="F113" t="n">
-        <v>10254</v>
+        <v>12800</v>
       </c>
       <c r="G113" t="n">
-        <v>37.3666666666667</v>
+        <v>37.33500000000004</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4765,7 +4651,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="C114" t="n">
         <v>38.5</v>
@@ -4774,13 +4660,13 @@
         <v>38.5</v>
       </c>
       <c r="E114" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="F114" t="n">
-        <v>2000.4245</v>
+        <v>10254</v>
       </c>
       <c r="G114" t="n">
-        <v>37.40166666666671</v>
+        <v>37.3666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4800,22 +4686,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="C115" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="D115" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="E115" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="F115" t="n">
-        <v>11800</v>
+        <v>2000.4245</v>
       </c>
       <c r="G115" t="n">
-        <v>37.44166666666671</v>
+        <v>37.40166666666671</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4835,7 +4721,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="C116" t="n">
         <v>38.8</v>
@@ -4844,13 +4730,13 @@
         <v>38.8</v>
       </c>
       <c r="E116" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="F116" t="n">
-        <v>23885.0375</v>
+        <v>11800</v>
       </c>
       <c r="G116" t="n">
-        <v>37.48500000000004</v>
+        <v>37.44166666666671</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4870,7 +4756,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="C117" t="n">
         <v>38.8</v>
@@ -4879,13 +4765,13 @@
         <v>38.8</v>
       </c>
       <c r="E117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F117" t="n">
-        <v>2766.8466</v>
+        <v>23885.0375</v>
       </c>
       <c r="G117" t="n">
-        <v>37.52500000000005</v>
+        <v>37.48500000000004</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4908,19 +4794,19 @@
         <v>38.8</v>
       </c>
       <c r="C118" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="D118" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="E118" t="n">
         <v>38.8</v>
       </c>
       <c r="F118" t="n">
-        <v>10000</v>
+        <v>2766.8466</v>
       </c>
       <c r="G118" t="n">
-        <v>37.57166666666672</v>
+        <v>37.52500000000005</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4940,22 +4826,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="C119" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="D119" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="E119" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="F119" t="n">
-        <v>5624.0359</v>
+        <v>10000</v>
       </c>
       <c r="G119" t="n">
-        <v>37.61666666666672</v>
+        <v>37.57166666666672</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4987,10 +4873,10 @@
         <v>38.9</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>5624.0359</v>
       </c>
       <c r="G120" t="n">
-        <v>37.64833333333339</v>
+        <v>37.61666666666672</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5013,19 +4899,19 @@
         <v>38.9</v>
       </c>
       <c r="C121" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="D121" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="E121" t="n">
         <v>38.9</v>
       </c>
       <c r="F121" t="n">
-        <v>16094.8717</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>37.68000000000006</v>
+        <v>37.64833333333339</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5045,22 +4931,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="C122" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="D122" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="E122" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="F122" t="n">
-        <v>1156.5487</v>
+        <v>16094.8717</v>
       </c>
       <c r="G122" t="n">
-        <v>37.70500000000006</v>
+        <v>37.68000000000006</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5080,22 +4966,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="C123" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="D123" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="E123" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="F123" t="n">
-        <v>4570.4884</v>
+        <v>1156.5487</v>
       </c>
       <c r="G123" t="n">
-        <v>37.74500000000005</v>
+        <v>37.70500000000006</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5118,19 +5004,19 @@
         <v>38.9</v>
       </c>
       <c r="C124" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="D124" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="E124" t="n">
         <v>38.9</v>
       </c>
       <c r="F124" t="n">
-        <v>64231.11589149485</v>
+        <v>4570.4884</v>
       </c>
       <c r="G124" t="n">
-        <v>37.78500000000006</v>
+        <v>37.74500000000005</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5150,22 +5036,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="C125" t="n">
         <v>39</v>
       </c>
       <c r="D125" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="E125" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="F125" t="n">
-        <v>51400</v>
+        <v>64231.11589149485</v>
       </c>
       <c r="G125" t="n">
-        <v>37.82000000000006</v>
+        <v>37.78500000000006</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5197,10 +5083,10 @@
         <v>39</v>
       </c>
       <c r="F126" t="n">
-        <v>24400</v>
+        <v>51400</v>
       </c>
       <c r="G126" t="n">
-        <v>37.85333333333339</v>
+        <v>37.82000000000006</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5232,10 +5118,10 @@
         <v>39</v>
       </c>
       <c r="F127" t="n">
-        <v>18400</v>
+        <v>24400</v>
       </c>
       <c r="G127" t="n">
-        <v>37.88833333333339</v>
+        <v>37.85333333333339</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5267,10 +5153,10 @@
         <v>39</v>
       </c>
       <c r="F128" t="n">
-        <v>43600</v>
+        <v>18400</v>
       </c>
       <c r="G128" t="n">
-        <v>37.92333333333339</v>
+        <v>37.88833333333339</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5302,10 +5188,10 @@
         <v>39</v>
       </c>
       <c r="F129" t="n">
-        <v>92</v>
+        <v>43600</v>
       </c>
       <c r="G129" t="n">
-        <v>37.95833333333339</v>
+        <v>37.92333333333339</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5325,22 +5211,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="C130" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="D130" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="E130" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="G130" t="n">
-        <v>37.99833333333338</v>
+        <v>37.95833333333339</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5360,22 +5246,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>39</v>
+        <v>39.4</v>
       </c>
       <c r="C131" t="n">
-        <v>38.6</v>
+        <v>39.4</v>
       </c>
       <c r="D131" t="n">
-        <v>39</v>
+        <v>39.4</v>
       </c>
       <c r="E131" t="n">
-        <v>38.6</v>
+        <v>39.4</v>
       </c>
       <c r="F131" t="n">
-        <v>4600</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>38.02666666666672</v>
+        <v>37.99833333333338</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5395,22 +5281,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="C132" t="n">
-        <v>38</v>
+        <v>38.6</v>
       </c>
       <c r="D132" t="n">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="E132" t="n">
-        <v>38</v>
+        <v>38.6</v>
       </c>
       <c r="F132" t="n">
-        <v>32085.5177</v>
+        <v>4600</v>
       </c>
       <c r="G132" t="n">
-        <v>38.04500000000005</v>
+        <v>38.02666666666672</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5433,19 +5319,19 @@
         <v>38.2</v>
       </c>
       <c r="C133" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="D133" t="n">
         <v>38.2</v>
       </c>
       <c r="E133" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="F133" t="n">
-        <v>15616.5532</v>
+        <v>32085.5177</v>
       </c>
       <c r="G133" t="n">
-        <v>38.06000000000005</v>
+        <v>38.04500000000005</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5468,19 +5354,19 @@
         <v>38.2</v>
       </c>
       <c r="C134" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="D134" t="n">
         <v>38.2</v>
       </c>
       <c r="E134" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="F134" t="n">
-        <v>20000</v>
+        <v>15616.5532</v>
       </c>
       <c r="G134" t="n">
-        <v>38.07833333333338</v>
+        <v>38.06000000000005</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5500,22 +5386,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="C135" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="D135" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="E135" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="F135" t="n">
-        <v>5609.9758</v>
+        <v>20000</v>
       </c>
       <c r="G135" t="n">
-        <v>38.10166666666672</v>
+        <v>38.07833333333338</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5535,22 +5421,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="C136" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="D136" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E136" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="F136" t="n">
-        <v>16054.6345</v>
+        <v>5609.9758</v>
       </c>
       <c r="G136" t="n">
-        <v>38.12500000000005</v>
+        <v>38.10166666666672</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5570,22 +5456,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="C137" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="D137" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="E137" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="F137" t="n">
-        <v>4000</v>
+        <v>16054.6345</v>
       </c>
       <c r="G137" t="n">
-        <v>38.14833333333339</v>
+        <v>38.12500000000005</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5617,10 +5503,10 @@
         <v>38.3</v>
       </c>
       <c r="F138" t="n">
-        <v>7111.1568</v>
+        <v>4000</v>
       </c>
       <c r="G138" t="n">
-        <v>38.17000000000006</v>
+        <v>38.14833333333339</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5640,22 +5526,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="C139" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="D139" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="E139" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="F139" t="n">
-        <v>752.0114</v>
+        <v>7111.1568</v>
       </c>
       <c r="G139" t="n">
-        <v>38.19166666666673</v>
+        <v>38.17000000000006</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5687,10 +5573,10 @@
         <v>38.4</v>
       </c>
       <c r="F140" t="n">
-        <v>2371.6638</v>
+        <v>752.0114</v>
       </c>
       <c r="G140" t="n">
-        <v>38.2133333333334</v>
+        <v>38.19166666666673</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5710,22 +5596,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="C141" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="D141" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="E141" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="F141" t="n">
-        <v>17437.8701</v>
+        <v>2371.6638</v>
       </c>
       <c r="G141" t="n">
-        <v>38.23666666666673</v>
+        <v>38.2133333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5745,22 +5631,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="C142" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="D142" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="E142" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="F142" t="n">
-        <v>15400</v>
+        <v>17437.8701</v>
       </c>
       <c r="G142" t="n">
-        <v>38.2533333333334</v>
+        <v>38.23666666666673</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5780,22 +5666,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>39</v>
+        <v>38.3</v>
       </c>
       <c r="C143" t="n">
-        <v>39</v>
+        <v>38.3</v>
       </c>
       <c r="D143" t="n">
-        <v>39</v>
+        <v>38.3</v>
       </c>
       <c r="E143" t="n">
-        <v>39</v>
+        <v>38.3</v>
       </c>
       <c r="F143" t="n">
-        <v>14008</v>
+        <v>15400</v>
       </c>
       <c r="G143" t="n">
-        <v>38.2833333333334</v>
+        <v>38.2533333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5815,22 +5701,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="C144" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="D144" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="E144" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="F144" t="n">
-        <v>21512.6598</v>
+        <v>14008</v>
       </c>
       <c r="G144" t="n">
-        <v>38.3183333333334</v>
+        <v>38.2833333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5850,22 +5736,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C145" t="n">
         <v>39.4</v>
       </c>
-      <c r="C145" t="n">
-        <v>39.5</v>
-      </c>
       <c r="D145" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="E145" t="n">
-        <v>39.4</v>
+        <v>39.1</v>
       </c>
       <c r="F145" t="n">
-        <v>62368.3291</v>
+        <v>21512.6598</v>
       </c>
       <c r="G145" t="n">
-        <v>38.35500000000006</v>
+        <v>38.3183333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5888,19 +5774,19 @@
         <v>39.4</v>
       </c>
       <c r="C146" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="D146" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E146" t="n">
         <v>39.4</v>
       </c>
-      <c r="E146" t="n">
-        <v>39.3</v>
-      </c>
       <c r="F146" t="n">
-        <v>23347.42657022901</v>
+        <v>62368.3291</v>
       </c>
       <c r="G146" t="n">
-        <v>38.38666666666673</v>
+        <v>38.35500000000006</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5920,10 +5806,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C147" t="n">
         <v>39.3</v>
-      </c>
-      <c r="C147" t="n">
-        <v>39.4</v>
       </c>
       <c r="D147" t="n">
         <v>39.4</v>
@@ -5932,10 +5818,10 @@
         <v>39.3</v>
       </c>
       <c r="F147" t="n">
-        <v>51798.6896</v>
+        <v>23347.42657022901</v>
       </c>
       <c r="G147" t="n">
-        <v>38.42000000000007</v>
+        <v>38.38666666666673</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5955,7 +5841,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="C148" t="n">
         <v>39.4</v>
@@ -5964,13 +5850,13 @@
         <v>39.4</v>
       </c>
       <c r="E148" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="F148" t="n">
-        <v>46876.3705</v>
+        <v>51798.6896</v>
       </c>
       <c r="G148" t="n">
-        <v>38.4533333333334</v>
+        <v>38.42000000000007</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5990,22 +5876,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="C149" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="D149" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="E149" t="n">
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="F149" t="n">
-        <v>2438.933</v>
+        <v>46876.3705</v>
       </c>
       <c r="G149" t="n">
-        <v>38.48833333333341</v>
+        <v>38.4533333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6025,22 +5911,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C150" t="n">
         <v>39.3</v>
       </c>
-      <c r="C150" t="n">
-        <v>39.4</v>
-      </c>
       <c r="D150" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="E150" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="F150" t="n">
-        <v>23865.3449</v>
+        <v>2438.933</v>
       </c>
       <c r="G150" t="n">
-        <v>38.52666666666674</v>
+        <v>38.48833333333341</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6060,7 +5946,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="C151" t="n">
         <v>39.4</v>
@@ -6069,13 +5955,13 @@
         <v>39.4</v>
       </c>
       <c r="E151" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="F151" t="n">
-        <v>14762.4111</v>
+        <v>23865.3449</v>
       </c>
       <c r="G151" t="n">
-        <v>38.56500000000008</v>
+        <v>38.52666666666674</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6098,19 +5984,19 @@
         <v>39.4</v>
       </c>
       <c r="C152" t="n">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="D152" t="n">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="E152" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="F152" t="n">
-        <v>347729.0977</v>
+        <v>14762.4111</v>
       </c>
       <c r="G152" t="n">
-        <v>38.60833333333341</v>
+        <v>38.56500000000008</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6130,22 +6016,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C153" t="n">
         <v>39.7</v>
       </c>
-      <c r="C153" t="n">
-        <v>39.8</v>
-      </c>
       <c r="D153" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="E153" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="F153" t="n">
-        <v>3795.8542</v>
+        <v>347729.0977</v>
       </c>
       <c r="G153" t="n">
-        <v>38.65333333333341</v>
+        <v>38.60833333333341</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6165,28 +6051,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="C154" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="D154" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="E154" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="F154" t="n">
-        <v>8995.454545454546</v>
+        <v>3795.8542</v>
       </c>
       <c r="G154" t="n">
-        <v>38.69333333333341</v>
+        <v>38.65333333333341</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6212,10 +6098,10 @@
         <v>39.6</v>
       </c>
       <c r="F155" t="n">
-        <v>7447.2979</v>
+        <v>8995.454545454546</v>
       </c>
       <c r="G155" t="n">
-        <v>38.73333333333342</v>
+        <v>38.69333333333341</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6235,22 +6121,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="C156" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="D156" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="E156" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="F156" t="n">
-        <v>6500</v>
+        <v>7447.2979</v>
       </c>
       <c r="G156" t="n">
-        <v>38.75833333333342</v>
+        <v>38.73333333333342</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6270,22 +6156,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="C157" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="D157" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="E157" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="F157" t="n">
-        <v>129891.3777545455</v>
+        <v>6500</v>
       </c>
       <c r="G157" t="n">
-        <v>38.78166666666675</v>
+        <v>38.75833333333342</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6305,22 +6191,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C158" t="n">
         <v>39.4</v>
       </c>
-      <c r="C158" t="n">
-        <v>39.7</v>
-      </c>
       <c r="D158" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="E158" t="n">
         <v>39.4</v>
       </c>
       <c r="F158" t="n">
-        <v>511</v>
+        <v>129891.3777545455</v>
       </c>
       <c r="G158" t="n">
-        <v>38.81000000000008</v>
+        <v>38.78166666666675</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6340,7 +6226,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="C159" t="n">
         <v>39.7</v>
@@ -6349,13 +6235,13 @@
         <v>39.7</v>
       </c>
       <c r="E159" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="F159" t="n">
-        <v>8012.767</v>
+        <v>511</v>
       </c>
       <c r="G159" t="n">
-        <v>38.83166666666674</v>
+        <v>38.81000000000008</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6375,7 +6261,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="C160" t="n">
         <v>39.7</v>
@@ -6384,13 +6270,13 @@
         <v>39.7</v>
       </c>
       <c r="E160" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="F160" t="n">
-        <v>118395.743</v>
+        <v>8012.767</v>
       </c>
       <c r="G160" t="n">
-        <v>38.8533333333334</v>
+        <v>38.83166666666674</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6410,22 +6296,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="C161" t="n">
         <v>39.7</v>
       </c>
       <c r="D161" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="E161" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="F161" t="n">
-        <v>2887.3565</v>
+        <v>118395.743</v>
       </c>
       <c r="G161" t="n">
-        <v>38.87500000000007</v>
+        <v>38.8533333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6445,10 +6331,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C162" t="n">
         <v>39.7</v>
-      </c>
-      <c r="C162" t="n">
-        <v>39.8</v>
       </c>
       <c r="D162" t="n">
         <v>39.8</v>
@@ -6457,10 +6343,10 @@
         <v>39.5</v>
       </c>
       <c r="F162" t="n">
-        <v>7530</v>
+        <v>2887.3565</v>
       </c>
       <c r="G162" t="n">
-        <v>38.89666666666674</v>
+        <v>38.87500000000007</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6480,10 +6366,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="C163" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="D163" t="n">
         <v>39.8</v>
@@ -6492,10 +6378,10 @@
         <v>39.5</v>
       </c>
       <c r="F163" t="n">
-        <v>51056.7099</v>
+        <v>7530</v>
       </c>
       <c r="G163" t="n">
-        <v>38.91666666666674</v>
+        <v>38.89666666666674</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6518,19 +6404,19 @@
         <v>39.6</v>
       </c>
       <c r="C164" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="D164" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="E164" t="n">
         <v>39.5</v>
       </c>
       <c r="F164" t="n">
-        <v>8629.0771</v>
+        <v>51056.7099</v>
       </c>
       <c r="G164" t="n">
-        <v>38.93166666666674</v>
+        <v>38.91666666666674</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6559,13 +6445,13 @@
         <v>39.6</v>
       </c>
       <c r="E165" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="F165" t="n">
-        <v>85.80800000000001</v>
+        <v>8629.0771</v>
       </c>
       <c r="G165" t="n">
-        <v>38.94500000000006</v>
+        <v>38.93166666666674</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6585,22 +6471,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="C166" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="D166" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="E166" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="F166" t="n">
-        <v>377.9335</v>
+        <v>85.80800000000001</v>
       </c>
       <c r="G166" t="n">
-        <v>38.96000000000006</v>
+        <v>38.94500000000006</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6620,22 +6506,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="C167" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="D167" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="E167" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="F167" t="n">
-        <v>22186.9838</v>
+        <v>377.9335</v>
       </c>
       <c r="G167" t="n">
-        <v>38.98000000000007</v>
+        <v>38.96000000000006</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6658,19 +6544,19 @@
         <v>39.6</v>
       </c>
       <c r="C168" t="n">
-        <v>40.4</v>
+        <v>39.8</v>
       </c>
       <c r="D168" t="n">
-        <v>40.4</v>
+        <v>39.8</v>
       </c>
       <c r="E168" t="n">
         <v>39.6</v>
       </c>
       <c r="F168" t="n">
-        <v>92307.65210000001</v>
+        <v>22186.9838</v>
       </c>
       <c r="G168" t="n">
-        <v>39.00666666666674</v>
+        <v>38.98000000000007</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6690,22 +6576,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="C169" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="D169" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="E169" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="F169" t="n">
-        <v>92724</v>
+        <v>92307.65210000001</v>
       </c>
       <c r="G169" t="n">
-        <v>39.03666666666673</v>
+        <v>39.00666666666674</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6725,22 +6611,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>40.2</v>
+        <v>39.7</v>
       </c>
       <c r="C170" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="D170" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="E170" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="F170" t="n">
-        <v>3538.7557</v>
+        <v>92724</v>
       </c>
       <c r="G170" t="n">
-        <v>39.07000000000006</v>
+        <v>39.03666666666673</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6760,22 +6646,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="C171" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="D171" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="E171" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="F171" t="n">
-        <v>23480.61573325062</v>
+        <v>3538.7557</v>
       </c>
       <c r="G171" t="n">
-        <v>39.10500000000006</v>
+        <v>39.07000000000006</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6795,22 +6681,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="C172" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="D172" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="E172" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="F172" t="n">
-        <v>889.3785</v>
+        <v>23480.61573325062</v>
       </c>
       <c r="G172" t="n">
-        <v>39.13666666666673</v>
+        <v>39.10500000000006</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6839,13 +6725,13 @@
         <v>40.2</v>
       </c>
       <c r="E173" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="F173" t="n">
-        <v>20488.8556</v>
+        <v>889.3785</v>
       </c>
       <c r="G173" t="n">
-        <v>39.16500000000006</v>
+        <v>39.13666666666673</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6868,19 +6754,19 @@
         <v>40.2</v>
       </c>
       <c r="C174" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="D174" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="E174" t="n">
         <v>40.2</v>
       </c>
       <c r="F174" t="n">
-        <v>10504.0443</v>
+        <v>20488.8556</v>
       </c>
       <c r="G174" t="n">
-        <v>39.19500000000006</v>
+        <v>39.16500000000006</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6900,22 +6786,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C175" t="n">
         <v>40.3</v>
       </c>
-      <c r="C175" t="n">
-        <v>40.5</v>
-      </c>
       <c r="D175" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="E175" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="F175" t="n">
-        <v>56755.8726</v>
+        <v>10504.0443</v>
       </c>
       <c r="G175" t="n">
-        <v>39.22333333333339</v>
+        <v>39.19500000000006</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6935,22 +6821,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="C176" t="n">
-        <v>40.1</v>
+        <v>40.5</v>
       </c>
       <c r="D176" t="n">
-        <v>40.1</v>
+        <v>40.5</v>
       </c>
       <c r="E176" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="F176" t="n">
-        <v>103448.7804</v>
+        <v>56755.8726</v>
       </c>
       <c r="G176" t="n">
-        <v>39.24500000000005</v>
+        <v>39.22333333333339</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6970,7 +6856,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="C177" t="n">
         <v>40.1</v>
@@ -6979,13 +6865,13 @@
         <v>40.1</v>
       </c>
       <c r="E177" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="F177" t="n">
-        <v>21465.6982</v>
+        <v>103448.7804</v>
       </c>
       <c r="G177" t="n">
-        <v>39.26666666666672</v>
+        <v>39.24500000000005</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7005,22 +6891,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>40</v>
+      </c>
+      <c r="C178" t="n">
         <v>40.1</v>
       </c>
-      <c r="C178" t="n">
-        <v>40.2</v>
-      </c>
       <c r="D178" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="E178" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="F178" t="n">
-        <v>14233.6007</v>
+        <v>21465.6982</v>
       </c>
       <c r="G178" t="n">
-        <v>39.28666666666671</v>
+        <v>39.26666666666672</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7040,22 +6926,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C179" t="n">
         <v>40.2</v>
       </c>
-      <c r="C179" t="n">
-        <v>40.5</v>
-      </c>
       <c r="D179" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="E179" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="F179" t="n">
-        <v>41308.4716</v>
+        <v>14233.6007</v>
       </c>
       <c r="G179" t="n">
-        <v>39.31333333333338</v>
+        <v>39.28666666666671</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7078,19 +6964,19 @@
         <v>40.2</v>
       </c>
       <c r="C180" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="D180" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="E180" t="n">
         <v>40</v>
       </c>
       <c r="F180" t="n">
-        <v>63207.9138</v>
+        <v>41308.4716</v>
       </c>
       <c r="G180" t="n">
-        <v>39.33166666666671</v>
+        <v>39.31333333333338</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7110,22 +6996,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>40.8</v>
+        <v>40.2</v>
       </c>
       <c r="C181" t="n">
         <v>40</v>
       </c>
       <c r="D181" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="E181" t="n">
         <v>40</v>
       </c>
       <c r="F181" t="n">
-        <v>64396.8554</v>
+        <v>63207.9138</v>
       </c>
       <c r="G181" t="n">
-        <v>39.34833333333337</v>
+        <v>39.33166666666671</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7145,22 +7031,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="C182" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="D182" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="E182" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="F182" t="n">
-        <v>78819.02740000001</v>
+        <v>64396.8554</v>
       </c>
       <c r="G182" t="n">
-        <v>39.37166666666671</v>
+        <v>39.34833333333337</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7186,16 +7072,16 @@
         <v>40.1</v>
       </c>
       <c r="D183" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="E183" t="n">
         <v>40.1</v>
       </c>
       <c r="F183" t="n">
-        <v>218252.5559</v>
+        <v>78819.02740000001</v>
       </c>
       <c r="G183" t="n">
-        <v>39.3916666666667</v>
+        <v>39.37166666666671</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7215,10 +7101,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="C184" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="D184" t="n">
         <v>40.6</v>
@@ -7227,10 +7113,10 @@
         <v>40.1</v>
       </c>
       <c r="F184" t="n">
-        <v>204623.338</v>
+        <v>218252.5559</v>
       </c>
       <c r="G184" t="n">
-        <v>39.41833333333337</v>
+        <v>39.3916666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7250,22 +7136,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C185" t="n">
         <v>40.6</v>
       </c>
-      <c r="C185" t="n">
-        <v>40.7</v>
-      </c>
       <c r="D185" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="E185" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="F185" t="n">
-        <v>33174.7855</v>
+        <v>204623.338</v>
       </c>
       <c r="G185" t="n">
-        <v>39.4466666666667</v>
+        <v>39.41833333333337</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7285,22 +7171,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="C186" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="D186" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="E186" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="F186" t="n">
-        <v>7512.289</v>
+        <v>33174.7855</v>
       </c>
       <c r="G186" t="n">
-        <v>39.4766666666667</v>
+        <v>39.4466666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7320,22 +7206,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="C187" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="D187" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="E187" t="n">
         <v>40.2</v>
       </c>
       <c r="F187" t="n">
-        <v>9500</v>
+        <v>7512.289</v>
       </c>
       <c r="G187" t="n">
-        <v>39.4966666666667</v>
+        <v>39.4766666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7355,22 +7241,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="C188" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="D188" t="n">
         <v>40.3</v>
       </c>
       <c r="E188" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="F188" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="G188" t="n">
-        <v>39.51833333333337</v>
+        <v>39.4966666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7393,19 +7279,19 @@
         <v>40.3</v>
       </c>
       <c r="C189" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="D189" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="E189" t="n">
         <v>40.3</v>
       </c>
       <c r="F189" t="n">
-        <v>47609.1523</v>
+        <v>7500</v>
       </c>
       <c r="G189" t="n">
-        <v>39.54500000000004</v>
+        <v>39.51833333333337</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7425,22 +7311,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="C190" t="n">
         <v>40.6</v>
       </c>
-      <c r="C190" t="n">
-        <v>40.7</v>
-      </c>
       <c r="D190" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="E190" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="F190" t="n">
-        <v>8410.1968</v>
+        <v>47609.1523</v>
       </c>
       <c r="G190" t="n">
-        <v>39.5666666666667</v>
+        <v>39.54500000000004</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7460,22 +7346,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C191" t="n">
         <v>40.7</v>
-      </c>
-      <c r="C191" t="n">
-        <v>40.1</v>
       </c>
       <c r="D191" t="n">
         <v>40.7</v>
       </c>
       <c r="E191" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F191" t="n">
-        <v>44183.4381</v>
+        <v>8410.1968</v>
       </c>
       <c r="G191" t="n">
-        <v>39.5916666666667</v>
+        <v>39.5666666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7495,22 +7381,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>40.3</v>
+        <v>40.7</v>
       </c>
       <c r="C192" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="D192" t="n">
-        <v>40.3</v>
+        <v>40.7</v>
       </c>
       <c r="E192" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="F192" t="n">
-        <v>37310</v>
+        <v>44183.4381</v>
       </c>
       <c r="G192" t="n">
-        <v>39.62833333333336</v>
+        <v>39.5916666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7530,7 +7416,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="C193" t="n">
         <v>40.2</v>
@@ -7539,13 +7425,13 @@
         <v>40.3</v>
       </c>
       <c r="E193" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="F193" t="n">
-        <v>44050.1554</v>
+        <v>37310</v>
       </c>
       <c r="G193" t="n">
-        <v>39.66833333333336</v>
+        <v>39.62833333333336</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7574,13 +7460,13 @@
         <v>40.3</v>
       </c>
       <c r="E194" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="F194" t="n">
-        <v>37914.6338</v>
+        <v>44050.1554</v>
       </c>
       <c r="G194" t="n">
-        <v>39.70333333333335</v>
+        <v>39.66833333333336</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7603,19 +7489,19 @@
         <v>40.2</v>
       </c>
       <c r="C195" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="D195" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="E195" t="n">
         <v>40.2</v>
       </c>
-      <c r="E195" t="n">
-        <v>40.1</v>
-      </c>
       <c r="F195" t="n">
-        <v>87243.4942</v>
+        <v>37914.6338</v>
       </c>
       <c r="G195" t="n">
-        <v>39.73833333333335</v>
+        <v>39.70333333333335</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7635,22 +7521,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="C196" t="n">
         <v>40.1</v>
       </c>
       <c r="D196" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="E196" t="n">
         <v>40.1</v>
       </c>
       <c r="F196" t="n">
-        <v>1623.5794</v>
+        <v>87243.4942</v>
       </c>
       <c r="G196" t="n">
-        <v>39.77500000000001</v>
+        <v>39.73833333333335</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7682,10 +7568,10 @@
         <v>40.1</v>
       </c>
       <c r="F197" t="n">
-        <v>8419.2634</v>
+        <v>1623.5794</v>
       </c>
       <c r="G197" t="n">
-        <v>39.80500000000001</v>
+        <v>39.77500000000001</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7705,22 +7591,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="C198" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="D198" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="E198" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="F198" t="n">
-        <v>86938.3805</v>
+        <v>8419.2634</v>
       </c>
       <c r="G198" t="n">
-        <v>39.83000000000001</v>
+        <v>39.80500000000001</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7740,22 +7626,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>40</v>
+      </c>
+      <c r="C199" t="n">
         <v>39.8</v>
       </c>
-      <c r="C199" t="n">
-        <v>39.6</v>
-      </c>
       <c r="D199" t="n">
+        <v>40</v>
+      </c>
+      <c r="E199" t="n">
         <v>39.8</v>
       </c>
-      <c r="E199" t="n">
-        <v>39.4</v>
-      </c>
       <c r="F199" t="n">
-        <v>166462.0636</v>
+        <v>86938.3805</v>
       </c>
       <c r="G199" t="n">
-        <v>39.85000000000001</v>
+        <v>39.83000000000001</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7775,22 +7661,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>39.5</v>
+        <v>39.8</v>
       </c>
       <c r="C200" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="D200" t="n">
-        <v>39.5</v>
+        <v>39.8</v>
       </c>
       <c r="E200" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="F200" t="n">
-        <v>84450.9284</v>
+        <v>166462.0636</v>
       </c>
       <c r="G200" t="n">
-        <v>39.86500000000001</v>
+        <v>39.85000000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7810,22 +7696,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="C201" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="D201" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="E201" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="F201" t="n">
-        <v>38828.9649</v>
+        <v>84450.9284</v>
       </c>
       <c r="G201" t="n">
-        <v>39.87666666666667</v>
+        <v>39.86500000000001</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7845,22 +7731,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="C202" t="n">
         <v>39.2</v>
       </c>
       <c r="D202" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="E202" t="n">
         <v>39.2</v>
       </c>
       <c r="F202" t="n">
-        <v>9649.671</v>
+        <v>38828.9649</v>
       </c>
       <c r="G202" t="n">
-        <v>39.89166666666667</v>
+        <v>39.87666666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7880,22 +7766,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>39.8</v>
+        <v>39.3</v>
       </c>
       <c r="C203" t="n">
-        <v>39.5</v>
+        <v>39.2</v>
       </c>
       <c r="D203" t="n">
-        <v>39.8</v>
+        <v>39.3</v>
       </c>
       <c r="E203" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="F203" t="n">
-        <v>3067.7576</v>
+        <v>9649.671</v>
       </c>
       <c r="G203" t="n">
-        <v>39.9</v>
+        <v>39.89166666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7915,22 +7801,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>39.4</v>
+        <v>39.8</v>
       </c>
       <c r="C204" t="n">
         <v>39.5</v>
       </c>
       <c r="D204" t="n">
-        <v>39.5</v>
+        <v>39.8</v>
       </c>
       <c r="E204" t="n">
         <v>39.4</v>
       </c>
       <c r="F204" t="n">
-        <v>7329.887</v>
+        <v>3067.7576</v>
       </c>
       <c r="G204" t="n">
-        <v>39.90166666666666</v>
+        <v>39.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7950,22 +7836,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="C205" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="D205" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="E205" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="F205" t="n">
-        <v>55565.7412</v>
+        <v>7329.887</v>
       </c>
       <c r="G205" t="n">
-        <v>39.89666666666666</v>
+        <v>39.90166666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7985,22 +7871,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C206" t="n">
         <v>39.2</v>
       </c>
-      <c r="C206" t="n">
-        <v>39.5</v>
-      </c>
       <c r="D206" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="E206" t="n">
         <v>39.2</v>
       </c>
       <c r="F206" t="n">
-        <v>2057.5696</v>
+        <v>55565.7412</v>
       </c>
       <c r="G206" t="n">
-        <v>39.89999999999999</v>
+        <v>39.89666666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8020,22 +7906,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="C207" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="D207" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="E207" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="F207" t="n">
-        <v>776.7157999999999</v>
+        <v>2057.5696</v>
       </c>
       <c r="G207" t="n">
-        <v>39.89833333333333</v>
+        <v>39.89999999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8055,22 +7941,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="C208" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="D208" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="E208" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="F208" t="n">
-        <v>3505.1544</v>
+        <v>776.7157999999999</v>
       </c>
       <c r="G208" t="n">
-        <v>39.89499999999999</v>
+        <v>39.89833333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8090,22 +7976,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="C209" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="D209" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="E209" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="F209" t="n">
-        <v>2359.0494</v>
+        <v>3505.1544</v>
       </c>
       <c r="G209" t="n">
-        <v>39.89666666666665</v>
+        <v>39.89499999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8125,22 +8011,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="C210" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="D210" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="E210" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="F210" t="n">
-        <v>7327.7416</v>
+        <v>2359.0494</v>
       </c>
       <c r="G210" t="n">
-        <v>39.89833333333332</v>
+        <v>39.89666666666665</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8172,10 +8058,10 @@
         <v>39.5</v>
       </c>
       <c r="F211" t="n">
-        <v>4000</v>
+        <v>7327.7416</v>
       </c>
       <c r="G211" t="n">
-        <v>39.89999999999998</v>
+        <v>39.89833333333332</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8198,19 +8084,19 @@
         <v>39.5</v>
       </c>
       <c r="C212" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="D212" t="n">
         <v>39.5</v>
       </c>
       <c r="E212" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="F212" t="n">
-        <v>62704.4492</v>
+        <v>4000</v>
       </c>
       <c r="G212" t="n">
-        <v>39.89166666666665</v>
+        <v>39.89999999999998</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8230,22 +8116,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C213" t="n">
         <v>39.2</v>
       </c>
-      <c r="C213" t="n">
-        <v>38.6</v>
-      </c>
       <c r="D213" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E213" t="n">
         <v>39.2</v>
       </c>
-      <c r="E213" t="n">
-        <v>38.6</v>
-      </c>
       <c r="F213" t="n">
-        <v>43024.9171</v>
+        <v>62704.4492</v>
       </c>
       <c r="G213" t="n">
-        <v>39.87166666666665</v>
+        <v>39.89166666666665</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8265,22 +8151,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="C214" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="D214" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="E214" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="F214" t="n">
-        <v>1558.4955</v>
+        <v>43024.9171</v>
       </c>
       <c r="G214" t="n">
-        <v>39.86166666666665</v>
+        <v>39.87166666666665</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8312,10 +8198,10 @@
         <v>39</v>
       </c>
       <c r="F215" t="n">
-        <v>10515.3909</v>
+        <v>1558.4955</v>
       </c>
       <c r="G215" t="n">
-        <v>39.85166666666665</v>
+        <v>39.86166666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8335,22 +8221,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="C216" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="D216" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="E216" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="F216" t="n">
-        <v>27069.7832</v>
+        <v>10515.3909</v>
       </c>
       <c r="G216" t="n">
-        <v>39.83999999999999</v>
+        <v>39.85166666666665</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8370,22 +8256,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="C217" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="D217" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="E217" t="n">
-        <v>38</v>
+        <v>38.7</v>
       </c>
       <c r="F217" t="n">
-        <v>183830.4135</v>
+        <v>27069.7832</v>
       </c>
       <c r="G217" t="n">
-        <v>39.82499999999998</v>
+        <v>39.83999999999999</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8408,19 +8294,19 @@
         <v>38.5</v>
       </c>
       <c r="C218" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="D218" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="E218" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="F218" t="n">
-        <v>88428.02</v>
+        <v>183830.4135</v>
       </c>
       <c r="G218" t="n">
-        <v>39.80999999999999</v>
+        <v>39.82499999999998</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8440,22 +8326,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="C219" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="D219" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="E219" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="F219" t="n">
-        <v>3948.925</v>
+        <v>88428.02</v>
       </c>
       <c r="G219" t="n">
-        <v>39.79833333333332</v>
+        <v>39.80999999999999</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8475,7 +8361,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="C220" t="n">
         <v>39</v>
@@ -8484,13 +8370,13 @@
         <v>39</v>
       </c>
       <c r="E220" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="F220" t="n">
-        <v>15505.1025</v>
+        <v>3948.925</v>
       </c>
       <c r="G220" t="n">
-        <v>39.78666666666666</v>
+        <v>39.79833333333332</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8510,7 +8396,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="C221" t="n">
         <v>39</v>
@@ -8519,13 +8405,13 @@
         <v>39</v>
       </c>
       <c r="E221" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="F221" t="n">
-        <v>51755.5685</v>
+        <v>15505.1025</v>
       </c>
       <c r="G221" t="n">
-        <v>39.775</v>
+        <v>39.78666666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8554,13 +8440,13 @@
         <v>39</v>
       </c>
       <c r="E222" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="F222" t="n">
-        <v>1974.282</v>
+        <v>51755.5685</v>
       </c>
       <c r="G222" t="n">
-        <v>39.76166666666666</v>
+        <v>39.775</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8580,22 +8466,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="C223" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="D223" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="E223" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="F223" t="n">
-        <v>1442.2107</v>
+        <v>1974.282</v>
       </c>
       <c r="G223" t="n">
-        <v>39.74833333333333</v>
+        <v>39.76166666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8627,10 +8513,10 @@
         <v>38.9</v>
       </c>
       <c r="F224" t="n">
-        <v>1058.1491</v>
+        <v>1442.2107</v>
       </c>
       <c r="G224" t="n">
-        <v>39.73666666666667</v>
+        <v>39.74833333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8650,22 +8536,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="C225" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="D225" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="E225" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="F225" t="n">
-        <v>2984</v>
+        <v>1058.1491</v>
       </c>
       <c r="G225" t="n">
-        <v>39.72166666666667</v>
+        <v>39.73666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8688,19 +8574,19 @@
         <v>38.7</v>
       </c>
       <c r="C226" t="n">
-        <v>39.1</v>
+        <v>38.7</v>
       </c>
       <c r="D226" t="n">
-        <v>39.1</v>
+        <v>38.7</v>
       </c>
       <c r="E226" t="n">
         <v>38.7</v>
       </c>
       <c r="F226" t="n">
-        <v>49200</v>
+        <v>2984</v>
       </c>
       <c r="G226" t="n">
-        <v>39.715</v>
+        <v>39.72166666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8720,22 +8606,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>39.2</v>
+        <v>38.7</v>
       </c>
       <c r="C227" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="D227" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="E227" t="n">
-        <v>39.2</v>
+        <v>38.7</v>
       </c>
       <c r="F227" t="n">
-        <v>10206.9797</v>
+        <v>49200</v>
       </c>
       <c r="G227" t="n">
-        <v>39.705</v>
+        <v>39.715</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8755,22 +8641,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="C228" t="n">
         <v>39.2</v>
       </c>
       <c r="D228" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="E228" t="n">
         <v>39.2</v>
       </c>
       <c r="F228" t="n">
-        <v>11554.32</v>
+        <v>10206.9797</v>
       </c>
       <c r="G228" t="n">
-        <v>39.68499999999999</v>
+        <v>39.705</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8790,22 +8676,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C229" t="n">
         <v>39.2</v>
       </c>
-      <c r="C229" t="n">
-        <v>39</v>
-      </c>
       <c r="D229" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E229" t="n">
         <v>39.2</v>
       </c>
-      <c r="E229" t="n">
-        <v>39</v>
-      </c>
       <c r="F229" t="n">
-        <v>7691.4301</v>
+        <v>11554.32</v>
       </c>
       <c r="G229" t="n">
-        <v>39.66666666666666</v>
+        <v>39.68499999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8828,19 +8714,19 @@
         <v>39.2</v>
       </c>
       <c r="C230" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="D230" t="n">
         <v>39.2</v>
       </c>
       <c r="E230" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="F230" t="n">
-        <v>11.8622</v>
+        <v>7691.4301</v>
       </c>
       <c r="G230" t="n">
-        <v>39.64999999999999</v>
+        <v>39.66666666666666</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8860,22 +8746,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="C231" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="D231" t="n">
         <v>39.2</v>
       </c>
       <c r="E231" t="n">
-        <v>38.6</v>
+        <v>39.2</v>
       </c>
       <c r="F231" t="n">
-        <v>272105.7165</v>
+        <v>11.8622</v>
       </c>
       <c r="G231" t="n">
-        <v>39.63333333333333</v>
+        <v>39.64999999999999</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8895,22 +8781,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="C232" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="D232" t="n">
         <v>39.2</v>
       </c>
       <c r="E232" t="n">
-        <v>39.2</v>
+        <v>38.6</v>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>272105.7165</v>
       </c>
       <c r="G232" t="n">
-        <v>39.61666666666666</v>
+        <v>39.63333333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8930,22 +8816,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="C233" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="D233" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="E233" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="F233" t="n">
-        <v>708.6368</v>
+        <v>1000</v>
       </c>
       <c r="G233" t="n">
-        <v>39.595</v>
+        <v>39.61666666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8977,10 +8863,10 @@
         <v>38.9</v>
       </c>
       <c r="F234" t="n">
-        <v>3377.4573</v>
+        <v>708.6368</v>
       </c>
       <c r="G234" t="n">
-        <v>39.57166666666667</v>
+        <v>39.595</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9003,19 +8889,19 @@
         <v>38.9</v>
       </c>
       <c r="C235" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="D235" t="n">
         <v>38.9</v>
       </c>
       <c r="E235" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="F235" t="n">
-        <v>5646.3022</v>
+        <v>3377.4573</v>
       </c>
       <c r="G235" t="n">
-        <v>39.54333333333333</v>
+        <v>39.57166666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9035,22 +8921,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="C236" t="n">
         <v>38.8</v>
       </c>
       <c r="D236" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="E236" t="n">
         <v>38.8</v>
       </c>
       <c r="F236" t="n">
-        <v>736.0925999999999</v>
+        <v>5646.3022</v>
       </c>
       <c r="G236" t="n">
-        <v>39.52166666666667</v>
+        <v>39.54333333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9082,10 +8968,10 @@
         <v>38.8</v>
       </c>
       <c r="F237" t="n">
-        <v>57664.768</v>
+        <v>736.0925999999999</v>
       </c>
       <c r="G237" t="n">
-        <v>39.50000000000001</v>
+        <v>39.52166666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9108,19 +8994,19 @@
         <v>38.8</v>
       </c>
       <c r="C238" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="D238" t="n">
         <v>38.8</v>
       </c>
       <c r="E238" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="F238" t="n">
-        <v>54335.9573</v>
+        <v>57664.768</v>
       </c>
       <c r="G238" t="n">
-        <v>39.47500000000001</v>
+        <v>39.50000000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9143,19 +9029,19 @@
         <v>38.8</v>
       </c>
       <c r="C239" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="D239" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="E239" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F239" t="n">
-        <v>7722.4861</v>
+        <v>54335.9573</v>
       </c>
       <c r="G239" t="n">
-        <v>39.44833333333334</v>
+        <v>39.47500000000001</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9175,22 +9061,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="C240" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="D240" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="E240" t="n">
         <v>38.8</v>
       </c>
       <c r="F240" t="n">
-        <v>40021.18513053435</v>
+        <v>7722.4861</v>
       </c>
       <c r="G240" t="n">
-        <v>39.42833333333335</v>
+        <v>39.44833333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9210,22 +9096,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="C241" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="D241" t="n">
         <v>39.3</v>
       </c>
       <c r="E241" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="F241" t="n">
-        <v>20482.9582</v>
+        <v>40021.18513053435</v>
       </c>
       <c r="G241" t="n">
-        <v>39.40666666666667</v>
+        <v>39.42833333333335</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9245,22 +9131,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="C242" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="D242" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="E242" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="F242" t="n">
-        <v>32.4935</v>
+        <v>20482.9582</v>
       </c>
       <c r="G242" t="n">
-        <v>39.38666666666668</v>
+        <v>39.40666666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9280,22 +9166,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="C243" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="D243" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="E243" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="F243" t="n">
-        <v>15400</v>
+        <v>32.4935</v>
       </c>
       <c r="G243" t="n">
-        <v>39.36333333333334</v>
+        <v>39.38666666666668</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9315,22 +9201,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C244" t="n">
         <v>38.7</v>
       </c>
-      <c r="C244" t="n">
-        <v>38.6</v>
-      </c>
       <c r="D244" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E244" t="n">
         <v>38.7</v>
       </c>
-      <c r="E244" t="n">
-        <v>38.6</v>
-      </c>
       <c r="F244" t="n">
-        <v>18200</v>
+        <v>15400</v>
       </c>
       <c r="G244" t="n">
-        <v>39.33000000000001</v>
+        <v>39.36333333333334</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9350,22 +9236,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="C245" t="n">
         <v>38.6</v>
       </c>
       <c r="D245" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="E245" t="n">
         <v>38.6</v>
       </c>
       <c r="F245" t="n">
-        <v>2049.7392</v>
+        <v>18200</v>
       </c>
       <c r="G245" t="n">
-        <v>39.29500000000001</v>
+        <v>39.33000000000001</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9385,22 +9271,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C246" t="n">
         <v>38.6</v>
       </c>
-      <c r="C246" t="n">
-        <v>38</v>
-      </c>
       <c r="D246" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E246" t="n">
         <v>38.6</v>
       </c>
-      <c r="E246" t="n">
-        <v>38</v>
-      </c>
       <c r="F246" t="n">
-        <v>32662.0565</v>
+        <v>2049.7392</v>
       </c>
       <c r="G246" t="n">
-        <v>39.24833333333334</v>
+        <v>39.29500000000001</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9420,22 +9306,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>38.2</v>
+        <v>38.6</v>
       </c>
       <c r="C247" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="D247" t="n">
-        <v>38.2</v>
+        <v>38.6</v>
       </c>
       <c r="E247" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="F247" t="n">
-        <v>46480.234</v>
+        <v>32662.0565</v>
       </c>
       <c r="G247" t="n">
-        <v>39.21500000000001</v>
+        <v>39.24833333333334</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9458,19 +9344,19 @@
         <v>38.2</v>
       </c>
       <c r="C248" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="D248" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="E248" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="F248" t="n">
-        <v>66502.3901</v>
+        <v>46480.234</v>
       </c>
       <c r="G248" t="n">
-        <v>39.18666666666667</v>
+        <v>39.21500000000001</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9493,19 +9379,19 @@
         <v>38.2</v>
       </c>
       <c r="C249" t="n">
-        <v>38.2</v>
+        <v>38.6</v>
       </c>
       <c r="D249" t="n">
-        <v>38.2</v>
+        <v>38.6</v>
       </c>
       <c r="E249" t="n">
         <v>38.2</v>
       </c>
       <c r="F249" t="n">
-        <v>774.7967</v>
+        <v>66502.3901</v>
       </c>
       <c r="G249" t="n">
-        <v>39.14666666666667</v>
+        <v>39.18666666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9525,22 +9411,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="C250" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="D250" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="E250" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="F250" t="n">
-        <v>9585.0383</v>
+        <v>774.7967</v>
       </c>
       <c r="G250" t="n">
-        <v>39.11000000000001</v>
+        <v>39.14666666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9560,22 +9446,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="C251" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="D251" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="E251" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="F251" t="n">
-        <v>8454.8531</v>
+        <v>9585.0383</v>
       </c>
       <c r="G251" t="n">
-        <v>39.08833333333335</v>
+        <v>39.11000000000001</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9595,22 +9481,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="C252" t="n">
-        <v>38.4</v>
+        <v>38.8</v>
       </c>
       <c r="D252" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="E252" t="n">
-        <v>38.4</v>
+        <v>38.7</v>
       </c>
       <c r="F252" t="n">
-        <v>3625.5591</v>
+        <v>8454.8531</v>
       </c>
       <c r="G252" t="n">
-        <v>39.05833333333335</v>
+        <v>39.08833333333335</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9633,19 +9519,19 @@
         <v>38.5</v>
       </c>
       <c r="C253" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="D253" t="n">
         <v>38.5</v>
       </c>
       <c r="E253" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="F253" t="n">
-        <v>160</v>
+        <v>3625.5591</v>
       </c>
       <c r="G253" t="n">
-        <v>39.03000000000002</v>
+        <v>39.05833333333335</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9665,22 +9551,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="C254" t="n">
-        <v>38.2</v>
+        <v>38.5</v>
       </c>
       <c r="D254" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="E254" t="n">
-        <v>38.2</v>
+        <v>38.5</v>
       </c>
       <c r="F254" t="n">
-        <v>40000</v>
+        <v>160</v>
       </c>
       <c r="G254" t="n">
-        <v>38.99666666666668</v>
+        <v>39.03000000000002</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9700,22 +9586,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="C255" t="n">
         <v>38.2</v>
       </c>
       <c r="D255" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="E255" t="n">
         <v>38.2</v>
       </c>
       <c r="F255" t="n">
-        <v>100128.453</v>
+        <v>40000</v>
       </c>
       <c r="G255" t="n">
-        <v>38.96500000000002</v>
+        <v>38.99666666666668</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9747,10 +9633,10 @@
         <v>38.2</v>
       </c>
       <c r="F256" t="n">
-        <v>26180.4421</v>
+        <v>100128.453</v>
       </c>
       <c r="G256" t="n">
-        <v>38.93333333333335</v>
+        <v>38.96500000000002</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9782,10 +9668,10 @@
         <v>38.2</v>
       </c>
       <c r="F257" t="n">
-        <v>9337.0314</v>
+        <v>26180.4421</v>
       </c>
       <c r="G257" t="n">
-        <v>38.90166666666668</v>
+        <v>38.93333333333335</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9805,22 +9691,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="C258" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="D258" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="E258" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="F258" t="n">
-        <v>2362.4546</v>
+        <v>9337.0314</v>
       </c>
       <c r="G258" t="n">
-        <v>38.87833333333334</v>
+        <v>38.90166666666668</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9840,22 +9726,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="C259" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="D259" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="E259" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="F259" t="n">
-        <v>861.7688000000001</v>
+        <v>2362.4546</v>
       </c>
       <c r="G259" t="n">
-        <v>38.85500000000001</v>
+        <v>38.87833333333334</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9887,10 +9773,10 @@
         <v>38.2</v>
       </c>
       <c r="F260" t="n">
-        <v>3000</v>
+        <v>861.7688000000001</v>
       </c>
       <c r="G260" t="n">
-        <v>38.83666666666667</v>
+        <v>38.85500000000001</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9922,10 +9808,10 @@
         <v>38.2</v>
       </c>
       <c r="F261" t="n">
-        <v>42566.8865</v>
+        <v>3000</v>
       </c>
       <c r="G261" t="n">
-        <v>38.82000000000001</v>
+        <v>38.83666666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9954,13 +9840,13 @@
         <v>38.2</v>
       </c>
       <c r="E262" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="F262" t="n">
-        <v>3676.1155</v>
+        <v>42566.8865</v>
       </c>
       <c r="G262" t="n">
-        <v>38.80333333333333</v>
+        <v>38.82000000000001</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9980,22 +9866,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="C263" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="D263" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="E263" t="n">
         <v>38.1</v>
       </c>
       <c r="F263" t="n">
-        <v>4555.3845</v>
+        <v>3676.1155</v>
       </c>
       <c r="G263" t="n">
-        <v>38.78</v>
+        <v>38.80333333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10015,22 +9901,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="C264" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="D264" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="E264" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="F264" t="n">
-        <v>13419.7686</v>
+        <v>4555.3845</v>
       </c>
       <c r="G264" t="n">
-        <v>38.75833333333333</v>
+        <v>38.78</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10062,10 +9948,10 @@
         <v>38.2</v>
       </c>
       <c r="F265" t="n">
-        <v>3223.5496</v>
+        <v>13419.7686</v>
       </c>
       <c r="G265" t="n">
-        <v>38.74166666666667</v>
+        <v>38.75833333333333</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10085,22 +9971,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="C266" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="D266" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="E266" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="F266" t="n">
-        <v>1000</v>
+        <v>3223.5496</v>
       </c>
       <c r="G266" t="n">
-        <v>38.72166666666667</v>
+        <v>38.74166666666667</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10120,22 +10006,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="C267" t="n">
-        <v>37.7</v>
+        <v>38.3</v>
       </c>
       <c r="D267" t="n">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="E267" t="n">
-        <v>37.7</v>
+        <v>38.3</v>
       </c>
       <c r="F267" t="n">
-        <v>83147.7102</v>
+        <v>1000</v>
       </c>
       <c r="G267" t="n">
-        <v>38.695</v>
+        <v>38.72166666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10155,22 +10041,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="C268" t="n">
-        <v>38.3</v>
+        <v>37.7</v>
       </c>
       <c r="D268" t="n">
-        <v>38.3</v>
+        <v>39.1</v>
       </c>
       <c r="E268" t="n">
-        <v>38.3</v>
+        <v>37.7</v>
       </c>
       <c r="F268" t="n">
-        <v>10400</v>
+        <v>83147.7102</v>
       </c>
       <c r="G268" t="n">
-        <v>38.68</v>
+        <v>38.695</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10202,10 +10088,10 @@
         <v>38.3</v>
       </c>
       <c r="F269" t="n">
-        <v>37200</v>
+        <v>10400</v>
       </c>
       <c r="G269" t="n">
-        <v>38.66166666666667</v>
+        <v>38.68</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10225,22 +10111,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="C270" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="D270" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="E270" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="F270" t="n">
-        <v>1551.9966</v>
+        <v>37200</v>
       </c>
       <c r="G270" t="n">
-        <v>38.64333333333334</v>
+        <v>38.66166666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10260,22 +10146,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="C271" t="n">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="D271" t="n">
-        <v>39.2</v>
+        <v>38.4</v>
       </c>
       <c r="E271" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="F271" t="n">
-        <v>180588.8843</v>
+        <v>1551.9966</v>
       </c>
       <c r="G271" t="n">
-        <v>38.63666666666667</v>
+        <v>38.64333333333334</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10295,22 +10181,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>39.3</v>
+        <v>38.5</v>
       </c>
       <c r="C272" t="n">
-        <v>39.4</v>
+        <v>39.1</v>
       </c>
       <c r="D272" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="E272" t="n">
-        <v>39.3</v>
+        <v>38.5</v>
       </c>
       <c r="F272" t="n">
-        <v>9000</v>
+        <v>180588.8843</v>
       </c>
       <c r="G272" t="n">
-        <v>38.64000000000001</v>
+        <v>38.63666666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10330,19 +10216,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C273" t="n">
         <v>39.4</v>
-      </c>
-      <c r="C273" t="n">
-        <v>38.6</v>
       </c>
       <c r="D273" t="n">
         <v>39.4</v>
       </c>
       <c r="E273" t="n">
-        <v>38.6</v>
+        <v>39.3</v>
       </c>
       <c r="F273" t="n">
-        <v>32307.0953</v>
+        <v>9000</v>
       </c>
       <c r="G273" t="n">
         <v>38.64000000000001</v>
@@ -10365,22 +10251,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>38.9</v>
+        <v>39.4</v>
       </c>
       <c r="C274" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="D274" t="n">
-        <v>38.9</v>
+        <v>39.4</v>
       </c>
       <c r="E274" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="F274" t="n">
-        <v>2226.562</v>
+        <v>32307.0953</v>
       </c>
       <c r="G274" t="n">
-        <v>38.63833333333334</v>
+        <v>38.64000000000001</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10400,19 +10286,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="C275" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="D275" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="E275" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="F275" t="n">
-        <v>1682.1928</v>
+        <v>2226.562</v>
       </c>
       <c r="G275" t="n">
         <v>38.63833333333334</v>
@@ -10438,19 +10324,19 @@
         <v>39</v>
       </c>
       <c r="C276" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="D276" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="E276" t="n">
         <v>39</v>
       </c>
       <c r="F276" t="n">
-        <v>3677.8995</v>
+        <v>1682.1928</v>
       </c>
       <c r="G276" t="n">
-        <v>38.645</v>
+        <v>38.63833333333334</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10473,19 +10359,19 @@
         <v>39</v>
       </c>
       <c r="C277" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="D277" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="E277" t="n">
         <v>39</v>
       </c>
       <c r="F277" t="n">
-        <v>801.3497</v>
+        <v>3677.8995</v>
       </c>
       <c r="G277" t="n">
-        <v>38.65333333333334</v>
+        <v>38.645</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10505,22 +10391,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="C278" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="D278" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="E278" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="F278" t="n">
-        <v>2617.6603</v>
+        <v>801.3497</v>
       </c>
       <c r="G278" t="n">
-        <v>38.65833333333333</v>
+        <v>38.65333333333334</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10552,10 +10438,10 @@
         <v>39.1</v>
       </c>
       <c r="F279" t="n">
-        <v>640.3115</v>
+        <v>2617.6603</v>
       </c>
       <c r="G279" t="n">
-        <v>38.66</v>
+        <v>38.65833333333333</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10575,22 +10461,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="C280" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="D280" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="E280" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="F280" t="n">
-        <v>5002.5192</v>
+        <v>640.3115</v>
       </c>
       <c r="G280" t="n">
-        <v>38.65833333333333</v>
+        <v>38.66</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10613,16 +10499,16 @@
         <v>39</v>
       </c>
       <c r="C281" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="D281" t="n">
         <v>39</v>
       </c>
       <c r="E281" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="F281" t="n">
-        <v>6616.8636</v>
+        <v>5002.5192</v>
       </c>
       <c r="G281" t="n">
         <v>38.65833333333333</v>
@@ -10645,22 +10531,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="C282" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="D282" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="E282" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="F282" t="n">
-        <v>71846.2691</v>
+        <v>6616.8636</v>
       </c>
       <c r="G282" t="n">
-        <v>38.65666666666667</v>
+        <v>38.65833333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10680,22 +10566,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="C283" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="D283" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="E283" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="F283" t="n">
-        <v>16000</v>
+        <v>71846.2691</v>
       </c>
       <c r="G283" t="n">
-        <v>38.65333333333333</v>
+        <v>38.65666666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10718,19 +10604,19 @@
         <v>38.8</v>
       </c>
       <c r="C284" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="D284" t="n">
         <v>38.8</v>
       </c>
       <c r="E284" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F284" t="n">
-        <v>3058.2262</v>
+        <v>16000</v>
       </c>
       <c r="G284" t="n">
-        <v>38.65166666666666</v>
+        <v>38.65333333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10753,16 +10639,16 @@
         <v>38.8</v>
       </c>
       <c r="C285" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="D285" t="n">
         <v>38.8</v>
       </c>
       <c r="E285" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="F285" t="n">
-        <v>4500</v>
+        <v>3058.2262</v>
       </c>
       <c r="G285" t="n">
         <v>38.65166666666666</v>
@@ -10785,22 +10671,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="C286" t="n">
         <v>38.7</v>
       </c>
       <c r="D286" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="E286" t="n">
         <v>38.7</v>
       </c>
       <c r="F286" t="n">
-        <v>20290.3295</v>
+        <v>4500</v>
       </c>
       <c r="G286" t="n">
-        <v>38.645</v>
+        <v>38.65166666666666</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10820,22 +10706,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="C287" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="D287" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="E287" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="F287" t="n">
-        <v>4396.5507</v>
+        <v>20290.3295</v>
       </c>
       <c r="G287" t="n">
-        <v>38.635</v>
+        <v>38.645</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10855,22 +10741,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="C288" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="D288" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="E288" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="F288" t="n">
-        <v>2000</v>
+        <v>4396.5507</v>
       </c>
       <c r="G288" t="n">
-        <v>38.63166666666667</v>
+        <v>38.635</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10890,22 +10776,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C289" t="n">
         <v>39</v>
       </c>
-      <c r="C289" t="n">
-        <v>39.1</v>
-      </c>
       <c r="D289" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="E289" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="F289" t="n">
-        <v>33200</v>
+        <v>2000</v>
       </c>
       <c r="G289" t="n">
-        <v>38.63333333333333</v>
+        <v>38.63166666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10925,22 +10811,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>38.6</v>
+        <v>39</v>
       </c>
       <c r="C290" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E290" t="n">
         <v>39</v>
       </c>
-      <c r="D290" t="n">
-        <v>39</v>
-      </c>
-      <c r="E290" t="n">
-        <v>38.6</v>
-      </c>
       <c r="F290" t="n">
-        <v>5681.5915</v>
+        <v>33200</v>
       </c>
       <c r="G290" t="n">
-        <v>38.63</v>
+        <v>38.63333333333333</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10963,19 +10849,19 @@
         <v>38.6</v>
       </c>
       <c r="C291" t="n">
-        <v>38.6</v>
+        <v>39</v>
       </c>
       <c r="D291" t="n">
-        <v>38.6</v>
+        <v>39</v>
       </c>
       <c r="E291" t="n">
         <v>38.6</v>
       </c>
       <c r="F291" t="n">
-        <v>729.8633</v>
+        <v>5681.5915</v>
       </c>
       <c r="G291" t="n">
-        <v>38.62333333333333</v>
+        <v>38.63</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10995,22 +10881,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="C292" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="D292" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="E292" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="F292" t="n">
-        <v>29708.1976</v>
+        <v>729.8633</v>
       </c>
       <c r="G292" t="n">
-        <v>38.61166666666667</v>
+        <v>38.62333333333333</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11030,22 +10916,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>38.4</v>
+        <v>38.7</v>
       </c>
       <c r="C293" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="D293" t="n">
-        <v>38.4</v>
+        <v>38.7</v>
       </c>
       <c r="E293" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="F293" t="n">
-        <v>1698.6325</v>
+        <v>29708.1976</v>
       </c>
       <c r="G293" t="n">
-        <v>38.60333333333334</v>
+        <v>38.61166666666667</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11065,22 +10951,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="C294" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="D294" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="E294" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="F294" t="n">
-        <v>59674.2554</v>
+        <v>1698.6325</v>
       </c>
       <c r="G294" t="n">
-        <v>38.58833333333334</v>
+        <v>38.60333333333334</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11100,22 +10986,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="C295" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="D295" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="E295" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="F295" t="n">
-        <v>4000</v>
+        <v>59674.2554</v>
       </c>
       <c r="G295" t="n">
-        <v>38.58333333333334</v>
+        <v>38.58833333333334</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11135,22 +11021,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="C296" t="n">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="D296" t="n">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="E296" t="n">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="F296" t="n">
-        <v>707.1766</v>
+        <v>4000</v>
       </c>
       <c r="G296" t="n">
-        <v>38.57166666666667</v>
+        <v>38.58333333333334</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11182,10 +11068,10 @@
         <v>38.1</v>
       </c>
       <c r="F297" t="n">
-        <v>2847.0161</v>
+        <v>707.1766</v>
       </c>
       <c r="G297" t="n">
-        <v>38.55999999999999</v>
+        <v>38.57166666666667</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11208,19 +11094,19 @@
         <v>38.1</v>
       </c>
       <c r="C298" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="D298" t="n">
         <v>38.1</v>
       </c>
       <c r="E298" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="F298" t="n">
-        <v>8145.3934</v>
+        <v>2847.0161</v>
       </c>
       <c r="G298" t="n">
-        <v>38.54833333333332</v>
+        <v>38.55999999999999</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11240,22 +11126,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="C299" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="D299" t="n">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="E299" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="F299" t="n">
-        <v>1000</v>
+        <v>8145.3934</v>
       </c>
       <c r="G299" t="n">
-        <v>38.54166666666666</v>
+        <v>38.54833333333332</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11275,10 +11161,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C300" t="n">
         <v>38.5</v>
-      </c>
-      <c r="C300" t="n">
-        <v>38.6</v>
       </c>
       <c r="D300" t="n">
         <v>38.6</v>
@@ -11287,10 +11173,10 @@
         <v>38.5</v>
       </c>
       <c r="F300" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G300" t="n">
-        <v>38.53833333333332</v>
+        <v>38.54166666666666</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11310,7 +11196,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="C301" t="n">
         <v>38.6</v>
@@ -11319,13 +11205,13 @@
         <v>38.6</v>
       </c>
       <c r="E301" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="F301" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G301" t="n">
-        <v>38.53666666666665</v>
+        <v>38.53833333333332</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11348,19 +11234,19 @@
         <v>38.6</v>
       </c>
       <c r="C302" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="D302" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="E302" t="n">
         <v>38.6</v>
       </c>
       <c r="F302" t="n">
-        <v>24108.0882</v>
+        <v>1000</v>
       </c>
       <c r="G302" t="n">
-        <v>38.53333333333332</v>
+        <v>38.53666666666665</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11380,7 +11266,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="C303" t="n">
         <v>38.7</v>
@@ -11389,10 +11275,10 @@
         <v>38.7</v>
       </c>
       <c r="E303" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="F303" t="n">
-        <v>97.5536</v>
+        <v>24108.0882</v>
       </c>
       <c r="G303" t="n">
         <v>38.53333333333332</v>
@@ -11427,10 +11313,10 @@
         <v>38.7</v>
       </c>
       <c r="F304" t="n">
-        <v>4065.1208</v>
+        <v>97.5536</v>
       </c>
       <c r="G304" t="n">
-        <v>38.53499999999998</v>
+        <v>38.53333333333332</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11462,10 +11348,10 @@
         <v>38.7</v>
       </c>
       <c r="F305" t="n">
-        <v>500</v>
+        <v>4065.1208</v>
       </c>
       <c r="G305" t="n">
-        <v>38.53666666666665</v>
+        <v>38.53499999999998</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11497,10 +11383,10 @@
         <v>38.7</v>
       </c>
       <c r="F306" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G306" t="n">
-        <v>38.54833333333331</v>
+        <v>38.53666666666665</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11523,19 +11409,19 @@
         <v>38.7</v>
       </c>
       <c r="C307" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="D307" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="E307" t="n">
         <v>38.7</v>
       </c>
       <c r="F307" t="n">
-        <v>6010</v>
+        <v>3000</v>
       </c>
       <c r="G307" t="n">
-        <v>38.56166666666665</v>
+        <v>38.54833333333331</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11555,19 +11441,19 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="C308" t="n">
-        <v>38.6</v>
+        <v>39</v>
       </c>
       <c r="D308" t="n">
-        <v>38.6</v>
+        <v>39</v>
       </c>
       <c r="E308" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="F308" t="n">
-        <v>4567.3673</v>
+        <v>6010</v>
       </c>
       <c r="G308" t="n">
         <v>38.56166666666665</v>
@@ -11590,22 +11476,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="C309" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="D309" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="E309" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="F309" t="n">
-        <v>106157</v>
+        <v>4567.3673</v>
       </c>
       <c r="G309" t="n">
-        <v>38.56333333333332</v>
+        <v>38.56166666666665</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11640,7 +11526,7 @@
         <v>106157</v>
       </c>
       <c r="G310" t="n">
-        <v>38.55999999999999</v>
+        <v>38.56333333333332</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11660,22 +11546,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="C311" t="n">
-        <v>37.8</v>
+        <v>38.3</v>
       </c>
       <c r="D311" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="E311" t="n">
-        <v>37.8</v>
+        <v>38.3</v>
       </c>
       <c r="F311" t="n">
-        <v>119743.7819</v>
+        <v>106157</v>
       </c>
       <c r="G311" t="n">
-        <v>38.54333333333332</v>
+        <v>38.55999999999999</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11695,22 +11581,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="C312" t="n">
-        <v>38.5</v>
+        <v>37.8</v>
       </c>
       <c r="D312" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="E312" t="n">
-        <v>38.3</v>
+        <v>37.8</v>
       </c>
       <c r="F312" t="n">
-        <v>2296.8841</v>
+        <v>119743.7819</v>
       </c>
       <c r="G312" t="n">
-        <v>38.54499999999999</v>
+        <v>38.54333333333332</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11730,22 +11616,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C313" t="n">
         <v>38.5</v>
-      </c>
-      <c r="C313" t="n">
-        <v>38.4</v>
       </c>
       <c r="D313" t="n">
         <v>38.5</v>
       </c>
       <c r="E313" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="F313" t="n">
-        <v>19893.8437</v>
+        <v>2296.8841</v>
       </c>
       <c r="G313" t="n">
-        <v>38.54333333333332</v>
+        <v>38.54499999999999</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11765,22 +11651,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="C314" t="n">
         <v>38.4</v>
       </c>
       <c r="D314" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="E314" t="n">
         <v>38.4</v>
       </c>
       <c r="F314" t="n">
-        <v>500</v>
+        <v>19893.8437</v>
       </c>
       <c r="G314" t="n">
-        <v>38.54666666666666</v>
+        <v>38.54333333333332</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11812,10 +11698,10 @@
         <v>38.4</v>
       </c>
       <c r="F315" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G315" t="n">
-        <v>38.55</v>
+        <v>38.54666666666666</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11838,19 +11724,19 @@
         <v>38.4</v>
       </c>
       <c r="C316" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="D316" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="E316" t="n">
         <v>38.4</v>
       </c>
       <c r="F316" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G316" t="n">
-        <v>38.555</v>
+        <v>38.55</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11882,10 +11768,10 @@
         <v>38.4</v>
       </c>
       <c r="F317" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G317" t="n">
-        <v>38.56000000000001</v>
+        <v>38.555</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11905,19 +11791,19 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>37.9</v>
+        <v>38.4</v>
       </c>
       <c r="C318" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D318" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E318" t="n">
         <v>38.4</v>
       </c>
-      <c r="D318" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="E318" t="n">
-        <v>37.9</v>
-      </c>
       <c r="F318" t="n">
-        <v>1045.0317</v>
+        <v>500</v>
       </c>
       <c r="G318" t="n">
         <v>38.56000000000001</v>
@@ -11935,6 +11821,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C319" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="D319" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E319" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1045.0317</v>
+      </c>
+      <c r="G319" t="n">
+        <v>38.56000000000001</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-25 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-25 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-87918.92710000003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-87058.80750000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,19 +550,11 @@
         <v>-86179.69470000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,19 +583,11 @@
         <v>-85179.69470000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,19 +616,11 @@
         <v>-85179.69470000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -686,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -725,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -764,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -803,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -881,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -920,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -959,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -998,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1154,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1232,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1271,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1346,19 +1210,11 @@
         <v>-137560.7982</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1387,19 +1243,15 @@
         <v>-137560.7982</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>36.6</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1428,17 +1280,17 @@
         <v>-284210.5023000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1469,13 +1321,11 @@
         <v>-273210.5023000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1510,13 +1360,13 @@
         <v>-274992.4788</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>36.8</v>
       </c>
       <c r="J29" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1551,13 +1401,13 @@
         <v>-287023.2474000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>36.6</v>
       </c>
       <c r="J30" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1592,13 +1442,13 @@
         <v>-285441.8224000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1633,13 +1483,13 @@
         <v>-285441.8224000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>36.5</v>
       </c>
       <c r="J32" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1674,13 +1524,11 @@
         <v>-285441.8224000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1715,13 +1563,13 @@
         <v>-285441.8224000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>36.5</v>
       </c>
       <c r="J34" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1756,13 +1604,13 @@
         <v>-286563.1714000001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>36.5</v>
       </c>
       <c r="J35" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1797,11 +1645,13 @@
         <v>-286563.1714000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J36" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1840,7 +1690,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1875,11 +1725,13 @@
         <v>-589818.9909000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J38" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1918,7 +1770,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1957,7 +1809,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1996,7 +1848,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2035,7 +1887,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2074,7 +1926,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2113,7 +1965,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2152,7 +2004,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2187,13 +2039,11 @@
         <v>-424468.4112211539</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2228,13 +2078,11 @@
         <v>-423617.2863211539</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2269,13 +2117,11 @@
         <v>-428191.1779211539</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2310,13 +2156,11 @@
         <v>-427340.4215211539</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2355,7 +2199,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2394,7 +2238,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2433,7 +2277,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2472,7 +2316,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2511,7 +2355,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2550,7 +2394,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2589,7 +2433,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2628,7 +2472,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2667,7 +2511,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2706,7 +2550,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2745,7 +2589,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2784,7 +2628,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2823,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2862,7 +2706,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2901,7 +2745,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2940,7 +2784,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2979,7 +2823,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3018,7 +2862,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3057,7 +2901,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3096,7 +2940,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3135,7 +2979,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3174,7 +3018,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3209,13 +3053,13 @@
         <v>-807082.6295211538</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>35.8</v>
       </c>
       <c r="J72" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3250,11 +3094,13 @@
         <v>-806572.6295211538</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J73" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3289,11 +3135,13 @@
         <v>-796160.9567211538</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>35.7</v>
+      </c>
       <c r="J74" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3328,11 +3176,13 @@
         <v>-839103.8054211538</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>36.1</v>
+      </c>
       <c r="J75" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3367,11 +3217,13 @@
         <v>-832165.9747211537</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>36</v>
+      </c>
       <c r="J76" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3406,11 +3258,13 @@
         <v>-826828.0888211537</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J77" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3449,7 +3303,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3488,7 +3342,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3527,7 +3381,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3566,7 +3420,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3605,7 +3459,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3640,13 +3494,13 @@
         <v>-904654.2163712892</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>36.6</v>
       </c>
       <c r="J83" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3681,11 +3535,13 @@
         <v>-903426.3542712892</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J84" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3720,13 +3576,13 @@
         <v>-904654.2162712892</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>36.3</v>
       </c>
       <c r="J85" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3761,13 +3617,13 @@
         <v>-904618.2162712892</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>36.1</v>
       </c>
       <c r="J86" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3802,13 +3658,13 @@
         <v>-913628.2162712892</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>36.2</v>
       </c>
       <c r="J87" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3843,13 +3699,11 @@
         <v>-865228.2162712892</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>35.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3888,7 +3742,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3927,7 +3781,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3966,7 +3820,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4005,7 +3859,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4040,11 +3894,13 @@
         <v>-862356.6212712892</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>37.2</v>
+      </c>
       <c r="J93" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4079,11 +3935,13 @@
         <v>-862356.6212712892</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J94" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4120,9 +3978,11 @@
       <c r="H95" t="n">
         <v>1</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J95" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4161,7 +4021,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4196,11 +4056,13 @@
         <v>-854481.2158712891</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J97" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4235,11 +4097,13 @@
         <v>-855358.1396712891</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J98" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4274,11 +4138,13 @@
         <v>-854748.1465712892</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J99" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4313,13 +4179,13 @@
         <v>-1154623.028471289</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>36.7</v>
       </c>
       <c r="J100" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4358,7 +4224,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4397,7 +4263,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4436,7 +4302,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4475,7 +4341,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4510,11 +4376,13 @@
         <v>-695110.2605712892</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J105" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4549,11 +4417,13 @@
         <v>-695100.2605712892</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J106" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4588,11 +4458,13 @@
         <v>-692991.2605712892</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J107" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4627,11 +4499,13 @@
         <v>-692491.2605712892</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J108" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4666,11 +4540,13 @@
         <v>-697662.7591712893</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J109" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4705,11 +4581,13 @@
         <v>-697662.7591712893</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J110" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4744,11 +4622,13 @@
         <v>-770863.7591712893</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J111" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4783,13 +4663,13 @@
         <v>-694899.5528712893</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>36.5</v>
       </c>
       <c r="J112" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4824,11 +4704,13 @@
         <v>-695758.4535712893</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J113" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4863,11 +4745,13 @@
         <v>-695758.4535712893</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J114" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4902,11 +4786,13 @@
         <v>-712958.4535712893</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J115" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4941,11 +4827,13 @@
         <v>-711958.4535712893</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J116" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4980,13 +4868,13 @@
         <v>-712916.1317712893</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>36.4</v>
       </c>
       <c r="J117" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5021,11 +4909,13 @@
         <v>-712916.1317712893</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J118" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5060,11 +4950,13 @@
         <v>-706403.5725712893</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J119" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5099,11 +4991,13 @@
         <v>-654857.5725712893</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>37</v>
+      </c>
       <c r="J120" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5142,7 +5036,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5177,11 +5071,13 @@
         <v>-642206.5577712893</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>37.2</v>
+      </c>
       <c r="J122" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5220,7 +5116,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5255,11 +5151,13 @@
         <v>-604806.5577712893</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J124" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5298,7 +5196,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5337,7 +5235,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5376,7 +5274,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5415,7 +5313,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5454,7 +5352,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5493,7 +5391,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5532,7 +5430,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5571,7 +5469,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5610,7 +5508,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5649,7 +5547,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5688,7 +5586,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5727,7 +5625,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5766,7 +5664,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5805,7 +5703,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5844,7 +5742,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5883,7 +5781,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5922,7 +5820,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5961,7 +5859,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6000,7 +5898,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6039,7 +5937,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6078,7 +5976,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6117,7 +6015,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6156,7 +6054,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6195,7 +6093,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6234,7 +6132,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6273,7 +6171,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6312,7 +6210,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6351,7 +6249,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6390,7 +6288,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6429,7 +6327,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6468,7 +6366,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6507,7 +6405,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6546,7 +6444,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6581,11 +6479,11 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6624,7 +6522,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6663,7 +6561,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6702,7 +6600,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6737,11 +6635,11 @@
         <v>-208633.9002712893</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6780,7 +6678,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6815,11 +6713,11 @@
         <v>-202738.9002712893</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6858,7 +6756,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6893,11 +6791,11 @@
         <v>-214348.7257712893</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6936,7 +6834,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6971,23 +6869,21 @@
         <v>-198000.1246627841</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.053011049723757</v>
-      </c>
-      <c r="M168" t="n">
-        <v>1.008287292817679</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7015,8 +6911,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7045,11 +6947,17 @@
         <v>-199527.0426627841</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7081,8 +6989,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7111,11 +7025,17 @@
         <v>-176473.0426627841</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7147,8 +7067,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7177,11 +7103,17 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7210,11 +7142,17 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7243,11 +7181,17 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7276,11 +7220,17 @@
         <v>-154673.0426627841</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7309,11 +7259,17 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7342,11 +7298,17 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7375,11 +7337,17 @@
         <v>-144202.2068627841</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7408,11 +7376,17 @@
         <v>-145358.7555627842</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7441,11 +7415,17 @@
         <v>-140788.2671627841</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7474,11 +7454,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7507,11 +7493,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7540,11 +7532,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7573,11 +7571,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7606,11 +7610,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7639,11 +7649,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7672,11 +7688,17 @@
         <v>-76547.1512712893</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7705,11 +7727,17 @@
         <v>-81147.1512712893</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7738,11 +7766,17 @@
         <v>-113232.6689712893</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7774,8 +7808,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +7847,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7837,11 +7883,17 @@
         <v>-114459.1979712893</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7870,11 +7922,17 @@
         <v>-130513.8324712893</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7903,11 +7961,17 @@
         <v>-126513.8324712893</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7936,11 +8000,17 @@
         <v>-126513.8324712893</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7969,11 +8039,17 @@
         <v>-125761.8210712893</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8002,11 +8078,17 @@
         <v>-125761.8210712893</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8038,8 +8120,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8071,8 +8159,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8104,8 +8198,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8137,8 +8237,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8170,8 +8276,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8200,11 +8312,17 @@
         <v>-49182.38864151829</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8236,8 +8354,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8266,11 +8390,17 @@
         <v>2616.300958481705</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8299,11 +8429,17 @@
         <v>177.3679584817046</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8332,11 +8468,17 @@
         <v>24042.7128584817</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +8507,17 @@
         <v>24042.7128584817</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8398,11 +8546,17 @@
         <v>371771.8105584817</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8434,8 +8588,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8467,8 +8627,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8497,11 +8663,17 @@
         <v>366572.2102130271</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8533,8 +8705,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8566,8 +8744,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8599,8 +8783,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8632,8 +8822,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8665,8 +8861,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8695,11 +8897,17 @@
         <v>230691.8324584817</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8728,11 +8936,17 @@
         <v>238221.8324584817</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8761,11 +8975,17 @@
         <v>187165.1225584816</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8794,11 +9014,17 @@
         <v>178536.0454584816</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8827,11 +9053,17 @@
         <v>178536.0454584816</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8860,11 +9092,17 @@
         <v>178158.1119584816</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8893,11 +9131,17 @@
         <v>200345.0957584816</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8926,11 +9170,17 @@
         <v>292652.7478584817</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8959,11 +9209,17 @@
         <v>199928.7478584817</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8992,11 +9248,17 @@
         <v>203467.5035584817</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9025,11 +9287,17 @@
         <v>179986.887825231</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9058,11 +9326,17 @@
         <v>180876.266325231</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9091,11 +9365,17 @@
         <v>180876.266325231</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9127,8 +9407,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9157,11 +9443,17 @@
         <v>248136.183225231</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9190,11 +9482,17 @@
         <v>144687.402825231</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9223,15 +9521,23 @@
         <v>144687.402825231</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>1.090628415300547</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.027932960893855</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9256,7 +9562,7 @@
         <v>158921.003525231</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9289,7 +9595,7 @@
         <v>200229.475125231</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9322,7 +9628,7 @@
         <v>137021.561325231</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9487,7 +9793,7 @@
         <v>453638.712225231</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9553,7 +9859,7 @@
         <v>451651.001225231</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9586,7 +9892,7 @@
         <v>459151.001225231</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9685,7 +9991,7 @@
         <v>470986.9122252309</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9718,7 +10024,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9751,7 +10057,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9817,7 +10123,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9850,7 +10156,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9883,7 +10189,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9916,7 +10222,7 @@
         <v>334115.0375252309</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9949,7 +10255,7 @@
         <v>167652.9739252309</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9982,7 +10288,7 @@
         <v>83202.0455252309</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10015,7 +10321,7 @@
         <v>44373.0806252309</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10048,7 +10354,7 @@
         <v>44373.0806252309</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10081,7 +10387,7 @@
         <v>47440.8382252309</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10114,7 +10420,7 @@
         <v>47440.8382252309</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10147,7 +10453,7 @@
         <v>-8124.902974769095</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10180,7 +10486,7 @@
         <v>-6067.333374769095</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10213,7 +10519,7 @@
         <v>-6844.049174769095</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10246,7 +10552,7 @@
         <v>-10349.2035747691</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10279,7 +10585,7 @@
         <v>-7990.154174769095</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10312,7 +10618,7 @@
         <v>-662.412574769095</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10345,7 +10651,7 @@
         <v>-662.412574769095</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10378,7 +10684,7 @@
         <v>-63366.8617747691</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10411,7 +10717,7 @@
         <v>-106391.7788747691</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10444,7 +10750,7 @@
         <v>-104833.2833747691</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10477,7 +10783,7 @@
         <v>-104833.2833747691</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10510,7 +10816,7 @@
         <v>-131903.0665747691</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10543,7 +10849,7 @@
         <v>-315733.4800747691</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10576,7 +10882,7 @@
         <v>-227305.4600747691</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10609,7 +10915,7 @@
         <v>-223356.5350747691</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10642,7 +10948,7 @@
         <v>-223356.5350747691</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10675,7 +10981,7 @@
         <v>-223356.5350747691</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10708,7 +11014,7 @@
         <v>-223356.5350747691</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10741,7 +11047,7 @@
         <v>-224798.7457747691</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10774,7 +11080,7 @@
         <v>-224798.7457747691</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10807,7 +11113,7 @@
         <v>-227782.7457747691</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10840,7 +11146,7 @@
         <v>-178582.7457747691</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10873,7 +11179,7 @@
         <v>-168375.7660747691</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10906,7 +11212,7 @@
         <v>-168375.7660747691</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10939,7 +11245,7 @@
         <v>-176067.1961747691</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10972,7 +11278,7 @@
         <v>-176055.3339747691</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11005,7 +11311,7 @@
         <v>-448161.0504747691</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11038,7 +11344,7 @@
         <v>-447161.0504747691</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11071,7 +11377,7 @@
         <v>-447869.6872747691</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11104,7 +11410,7 @@
         <v>-447869.6872747691</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11203,7 +11509,7 @@
         <v>-453515.989474769</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11269,7 +11575,7 @@
         <v>-500129.4606747691</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11335,7 +11641,7 @@
         <v>-560633.6040053035</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -14217,6 +14523,6 @@
       <c r="M387" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-25 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,14 +1243,10 @@
         <v>-137560.7982</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1280,19 +1276,11 @@
         <v>-284210.5023000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1324,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1360,19 +1342,11 @@
         <v>-274992.4788</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1401,19 +1375,11 @@
         <v>-287023.2474000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1442,19 +1408,11 @@
         <v>-285441.8224000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1483,19 +1441,11 @@
         <v>-285441.8224000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1527,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1563,19 +1507,11 @@
         <v>-285441.8224000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1604,19 +1540,11 @@
         <v>-286563.1714000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1645,19 +1573,11 @@
         <v>-286563.1714000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1689,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1725,19 +1639,11 @@
         <v>-589818.9909000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1769,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1808,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1847,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1925,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1964,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2003,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2042,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2081,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2120,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2159,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2237,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2276,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2315,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2354,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2393,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2432,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2471,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2510,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2588,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2627,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2666,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2705,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2744,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2783,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2822,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2861,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2900,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2939,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2978,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3017,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3053,19 +2761,11 @@
         <v>-807082.6295211538</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3094,19 +2794,11 @@
         <v>-806572.6295211538</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,19 +2827,11 @@
         <v>-796160.9567211538</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3176,19 +2860,11 @@
         <v>-839103.8054211538</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3217,19 +2893,11 @@
         <v>-832165.9747211537</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>36</v>
-      </c>
-      <c r="J76" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3258,19 +2926,11 @@
         <v>-826828.0888211537</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="J77" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3341,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3380,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3458,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3494,19 +3124,11 @@
         <v>-904654.2163712892</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3535,19 +3157,11 @@
         <v>-903426.3542712892</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3576,19 +3190,11 @@
         <v>-904654.2162712892</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3617,19 +3223,11 @@
         <v>-904618.2162712892</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3658,19 +3256,11 @@
         <v>-913628.2162712892</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3702,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3741,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3780,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3819,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3858,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3894,19 +3454,11 @@
         <v>-862356.6212712892</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3935,19 +3487,11 @@
         <v>-862356.6212712892</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3976,19 +3520,11 @@
         <v>-852491.2158712891</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4020,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4056,19 +3586,11 @@
         <v>-854481.2158712891</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4097,19 +3619,11 @@
         <v>-855358.1396712891</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4138,19 +3652,11 @@
         <v>-854748.1465712892</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4179,19 +3685,11 @@
         <v>-1154623.028471289</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4223,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4262,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4340,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4376,19 +3850,11 @@
         <v>-695110.2605712892</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4417,19 +3883,11 @@
         <v>-695100.2605712892</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4458,19 +3916,11 @@
         <v>-692991.2605712892</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4499,19 +3949,11 @@
         <v>-692491.2605712892</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J108" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4540,19 +3982,11 @@
         <v>-697662.7591712893</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J109" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4581,19 +4015,11 @@
         <v>-697662.7591712893</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J110" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4622,19 +4048,11 @@
         <v>-770863.7591712893</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J111" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4663,19 +4081,11 @@
         <v>-694899.5528712893</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4704,19 +4114,11 @@
         <v>-695758.4535712893</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J113" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4745,19 +4147,11 @@
         <v>-695758.4535712893</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4786,19 +4180,11 @@
         <v>-712958.4535712893</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J115" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4827,19 +4213,11 @@
         <v>-711958.4535712893</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4868,19 +4246,11 @@
         <v>-712916.1317712893</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J117" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4915,13 +4285,9 @@
         <v>36.2</v>
       </c>
       <c r="J118" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>36.2</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4956,11 +4322,11 @@
         <v>36.2</v>
       </c>
       <c r="J119" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4991,17 +4357,15 @@
         <v>-654857.5725712893</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -5035,14 +4399,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5071,19 +4429,11 @@
         <v>-642206.5577712893</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="J122" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5115,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5151,19 +4495,11 @@
         <v>-604806.5577712893</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J124" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +4531,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +4564,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +4597,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5312,14 +4630,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +4663,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +4696,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5429,14 +4729,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5468,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5507,14 +4795,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5546,14 +4828,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5585,14 +4861,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5624,14 +4894,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5663,14 +4927,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5702,14 +4960,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5741,14 +4993,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5780,14 +5026,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5819,14 +5059,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5858,14 +5092,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5897,14 +5125,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5936,14 +5158,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5975,14 +5191,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6014,14 +5224,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6053,14 +5257,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6092,14 +5290,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6131,14 +5323,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6170,14 +5356,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6209,14 +5389,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6248,14 +5422,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6287,14 +5455,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +5488,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6365,14 +5521,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6401,17 +5551,11 @@
         <v>-273871.1859712893</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6440,17 +5584,11 @@
         <v>-273871.1859712893</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6479,17 +5617,11 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6518,17 +5650,11 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6557,17 +5683,11 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6596,17 +5716,11 @@
         <v>-208633.9002712893</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6635,17 +5749,11 @@
         <v>-208633.9002712893</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6674,17 +5782,11 @@
         <v>-202749.9002712893</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6713,17 +5815,11 @@
         <v>-202738.9002712893</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6752,17 +5848,11 @@
         <v>-214348.7257712893</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6791,17 +5881,11 @@
         <v>-214348.7257712893</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6830,17 +5914,11 @@
         <v>-196334.2369627841</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6869,17 +5947,11 @@
         <v>-198000.1246627841</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6908,17 +5980,11 @@
         <v>-198784.6484627841</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6947,17 +6013,11 @@
         <v>-199527.0426627841</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6986,17 +6046,11 @@
         <v>-186727.0426627841</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7025,17 +6079,11 @@
         <v>-176473.0426627841</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7064,17 +6112,11 @@
         <v>-176473.0426627841</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7103,17 +6145,11 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7142,17 +6178,11 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7181,17 +6211,11 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7220,17 +6244,11 @@
         <v>-154673.0426627841</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7259,17 +6277,11 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7298,17 +6310,11 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7337,17 +6343,11 @@
         <v>-144202.2068627841</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7376,17 +6376,11 @@
         <v>-145358.7555627842</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7415,17 +6409,11 @@
         <v>-140788.2671627841</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7454,17 +6442,11 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7493,17 +6475,11 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7532,17 +6508,11 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7571,17 +6541,11 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7610,17 +6574,11 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7649,17 +6607,11 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7688,17 +6640,11 @@
         <v>-76547.1512712893</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7727,17 +6673,11 @@
         <v>-81147.1512712893</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7766,17 +6706,11 @@
         <v>-113232.6689712893</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7808,14 +6742,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7847,14 +6775,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7886,14 +6808,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7925,14 +6841,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7964,14 +6874,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8003,14 +6907,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8042,14 +6940,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8081,14 +6973,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8120,14 +7006,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8159,14 +7039,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8195,17 +7069,11 @@
         <v>-109715.9509712893</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8234,17 +7102,11 @@
         <v>-88203.29117128928</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8276,14 +7138,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8315,14 +7171,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8354,14 +7204,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8393,14 +7237,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8432,14 +7270,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8471,14 +7303,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8510,14 +7336,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8549,14 +7369,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8588,14 +7402,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8627,14 +7435,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8666,14 +7468,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8705,14 +7501,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8744,14 +7534,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8783,14 +7567,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8822,14 +7600,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8861,14 +7633,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8900,14 +7666,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8939,14 +7699,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8978,14 +7732,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9017,14 +7765,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9056,14 +7798,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9095,14 +7831,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9134,14 +7864,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9173,14 +7897,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9212,14 +7930,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9251,14 +7963,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9290,14 +7996,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9329,14 +8029,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9368,14 +8062,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9407,14 +8095,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9446,14 +8128,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9485,14 +8161,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9521,23 +8191,15 @@
         <v>144687.402825231</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
-        <v>1.090628415300547</v>
-      </c>
-      <c r="M236" t="n">
-        <v>1.027932960893855</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9562,7 +8224,7 @@
         <v>158921.003525231</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9595,7 +8257,7 @@
         <v>200229.475125231</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9628,7 +8290,7 @@
         <v>137021.561325231</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -10123,7 +8785,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10156,7 +8818,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10189,7 +8851,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10222,7 +8884,7 @@
         <v>334115.0375252309</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10255,7 +8917,7 @@
         <v>167652.9739252309</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10288,7 +8950,7 @@
         <v>83202.0455252309</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10321,7 +8983,7 @@
         <v>44373.0806252309</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10354,7 +9016,7 @@
         <v>44373.0806252309</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10387,7 +9049,7 @@
         <v>47440.8382252309</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10420,7 +9082,7 @@
         <v>47440.8382252309</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10453,7 +9115,7 @@
         <v>-8124.902974769095</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10486,7 +9148,7 @@
         <v>-6067.333374769095</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10519,7 +9181,7 @@
         <v>-6844.049174769095</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10552,7 +9214,7 @@
         <v>-10349.2035747691</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10585,7 +9247,7 @@
         <v>-7990.154174769095</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10618,7 +9280,7 @@
         <v>-662.412574769095</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10651,7 +9313,7 @@
         <v>-662.412574769095</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10684,7 +9346,7 @@
         <v>-63366.8617747691</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10717,7 +9379,7 @@
         <v>-106391.7788747691</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10750,7 +9412,7 @@
         <v>-104833.2833747691</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10783,7 +9445,7 @@
         <v>-104833.2833747691</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10816,7 +9478,7 @@
         <v>-131903.0665747691</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10849,7 +9511,7 @@
         <v>-315733.4800747691</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10915,7 +9577,7 @@
         <v>-223356.5350747691</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10948,7 +9610,7 @@
         <v>-223356.5350747691</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10981,7 +9643,7 @@
         <v>-223356.5350747691</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11014,7 +9676,7 @@
         <v>-223356.5350747691</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11047,7 +9709,7 @@
         <v>-224798.7457747691</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11080,7 +9742,7 @@
         <v>-224798.7457747691</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11179,7 +9841,7 @@
         <v>-168375.7660747691</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11212,7 +9874,7 @@
         <v>-168375.7660747691</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11278,7 +9940,7 @@
         <v>-176055.3339747691</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -13588,7 +12250,7 @@
         <v>-589942.2566053033</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14523,6 +13185,6 @@
       <c r="M387" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-25 BackTest LAMB.xlsx
@@ -3190,10 +3190,14 @@
         <v>-904654.2162712892</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>36.3</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3223,11 +3227,19 @@
         <v>-904618.2162712892</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3268,19 @@
         <v>-913628.2162712892</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3309,19 @@
         <v>-865228.2162712892</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3353,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3392,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3431,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3470,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3509,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3548,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3584,19 @@
         <v>-852491.2158712891</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3625,19 @@
         <v>-854491.2158712891</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>37</v>
+      </c>
+      <c r="J96" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3666,19 @@
         <v>-854481.2158712891</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3707,19 @@
         <v>-855358.1396712891</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3748,19 @@
         <v>-854748.1465712892</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3789,19 @@
         <v>-1154623.028471289</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3833,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3872,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3911,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3950,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3989,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4028,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4067,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4106,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4145,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4184,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4223,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4262,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4376,19 @@
         <v>-712958.4535712893</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4417,19 @@
         <v>-711958.4535712893</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4461,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4285,9 +4503,13 @@
         <v>36.2</v>
       </c>
       <c r="J118" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>36.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4322,11 +4544,11 @@
         <v>36.2</v>
       </c>
       <c r="J119" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4357,15 +4579,17 @@
         <v>-654857.5725712893</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>37</v>
+      </c>
       <c r="J120" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4399,8 +4623,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4429,11 +4659,19 @@
         <v>-642206.5577712893</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4462,11 +4700,19 @@
         <v>-638206.5577712893</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J123" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4495,11 +4741,19 @@
         <v>-604806.5577712893</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J124" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4528,11 +4782,19 @@
         <v>-604306.5577712893</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J125" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4561,11 +4823,19 @@
         <v>-613306.5577712893</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>37</v>
+      </c>
+      <c r="J126" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4594,11 +4864,19 @@
         <v>-613306.5577712893</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J127" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4627,11 +4905,19 @@
         <v>-613306.5577712893</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J128" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +4946,19 @@
         <v>-613296.5577712893</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J129" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +4987,19 @@
         <v>-613796.5577712893</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>37</v>
+      </c>
+      <c r="J130" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4726,11 +5028,19 @@
         <v>-613796.5577712893</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J131" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +5069,19 @@
         <v>-613796.5577712893</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J132" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4795,8 +5113,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4828,8 +5152,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4858,11 +5188,19 @@
         <v>-627502.9336712892</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J135" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4891,11 +5229,19 @@
         <v>-626502.9336712892</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4927,8 +5273,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4960,8 +5312,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4993,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5023,11 +5387,19 @@
         <v>-597202.9336712892</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5092,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5125,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5158,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5191,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5224,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5257,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5290,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5356,8 +5782,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5389,8 +5821,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5422,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5455,8 +5899,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5488,8 +5938,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5521,8 +5977,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +6013,17 @@
         <v>-273871.1859712893</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5584,11 +6052,17 @@
         <v>-273871.1859712893</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5617,11 +6091,17 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5650,11 +6130,17 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5683,11 +6169,17 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5716,11 +6208,17 @@
         <v>-208633.9002712893</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +6247,17 @@
         <v>-208633.9002712893</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5782,11 +6286,17 @@
         <v>-202749.9002712893</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +6325,17 @@
         <v>-202738.9002712893</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5848,11 +6364,17 @@
         <v>-214348.7257712893</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +6403,17 @@
         <v>-214348.7257712893</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5914,11 +6442,17 @@
         <v>-196334.2369627841</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +6481,17 @@
         <v>-198000.1246627841</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5980,11 +6520,17 @@
         <v>-198784.6484627841</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6013,11 +6559,17 @@
         <v>-199527.0426627841</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6046,11 +6598,17 @@
         <v>-186727.0426627841</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +6637,17 @@
         <v>-176473.0426627841</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6112,11 +6676,17 @@
         <v>-176473.0426627841</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6145,11 +6715,17 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6178,11 +6754,17 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6211,11 +6793,17 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6244,11 +6832,17 @@
         <v>-154673.0426627841</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6277,11 +6871,17 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6310,11 +6910,17 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6343,11 +6949,17 @@
         <v>-144202.2068627841</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6376,11 +6988,17 @@
         <v>-145358.7555627842</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6409,11 +7027,17 @@
         <v>-140788.2671627841</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6442,11 +7066,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6475,11 +7105,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6508,11 +7144,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +7183,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6574,11 +7222,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6607,11 +7261,17 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +7300,17 @@
         <v>-76547.1512712893</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6673,11 +7339,17 @@
         <v>-81147.1512712893</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6706,11 +7378,17 @@
         <v>-113232.6689712893</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6742,8 +7420,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6775,8 +7459,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6808,8 +7498,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +7537,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +7576,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +7615,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6940,8 +7654,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +7693,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7006,8 +7732,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7771,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7069,11 +7807,17 @@
         <v>-109715.9509712893</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7102,11 +7846,17 @@
         <v>-88203.29117128928</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7138,8 +7888,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7171,8 +7927,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7204,8 +7966,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7237,8 +8005,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7267,15 +8041,23 @@
         <v>177.3679584817046</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>1.077644628099174</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1.050704225352113</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7366,7 +8148,7 @@
         <v>371771.8105584817</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7399,7 +8181,7 @@
         <v>375567.6647584817</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7432,7 +8214,7 @@
         <v>366572.2102130271</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7465,7 +8247,7 @@
         <v>366572.2102130271</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7795,7 +8577,7 @@
         <v>178536.0454584816</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7828,7 +8610,7 @@
         <v>178158.1119584816</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7861,7 +8643,7 @@
         <v>200345.0957584816</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8059,7 +8841,7 @@
         <v>180876.266325231</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8092,7 +8874,7 @@
         <v>191380.310625231</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8125,7 +8907,7 @@
         <v>248136.183225231</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8158,7 +8940,7 @@
         <v>144687.402825231</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8191,7 +8973,7 @@
         <v>144687.402825231</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8224,7 +9006,7 @@
         <v>158921.003525231</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8257,7 +9039,7 @@
         <v>200229.475125231</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8290,7 +9072,7 @@
         <v>137021.561325231</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8323,7 +9105,7 @@
         <v>137021.561325231</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8356,7 +9138,7 @@
         <v>215840.588725231</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8389,7 +9171,7 @@
         <v>215840.588725231</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8422,7 +9204,7 @@
         <v>420463.926725231</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8455,7 +9237,7 @@
         <v>453638.712225231</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8488,7 +9270,7 @@
         <v>461151.001225231</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8521,7 +9303,7 @@
         <v>451651.001225231</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8554,7 +9336,7 @@
         <v>459151.001225231</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8587,7 +9369,7 @@
         <v>506760.153525231</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8620,7 +9402,7 @@
         <v>515170.350325231</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8653,7 +9435,7 @@
         <v>470986.9122252309</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8686,7 +9468,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8719,7 +9501,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8752,7 +9534,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8785,7 +9567,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8818,7 +9600,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8851,7 +9633,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8884,7 +9666,7 @@
         <v>334115.0375252309</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8917,7 +9699,7 @@
         <v>167652.9739252309</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8950,7 +9732,7 @@
         <v>83202.0455252309</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9115,7 +9897,7 @@
         <v>-8124.902974769095</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9148,7 +9930,7 @@
         <v>-6067.333374769095</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9181,7 +9963,7 @@
         <v>-6844.049174769095</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9214,7 +9996,7 @@
         <v>-10349.2035747691</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9280,7 +10062,7 @@
         <v>-662.412574769095</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9313,7 +10095,7 @@
         <v>-662.412574769095</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9346,7 +10128,7 @@
         <v>-63366.8617747691</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9379,7 +10161,7 @@
         <v>-106391.7788747691</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -12250,7 +13032,7 @@
         <v>-589942.2566053033</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
